--- a/tests/cost_calculation_validation.xlsx
+++ b/tests/cost_calculation_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pysim5g\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F08EEA4-83BE-49E0-8022-34A4CEDAAFE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE99399-FE93-492B-B83C-5BF75FAC1973}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{5486E507-0580-42C6-8825-53BB77455D49}"/>
+    <workbookView xWindow="1035" yWindow="2400" windowWidth="14415" windowHeight="13290" xr2:uid="{5486E507-0580-42C6-8825-53BB77455D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>'single_remote_radio_unit'</t>
   </si>
@@ -54,21 +54,9 @@
     <t>'installation'</t>
   </si>
   <si>
-    <t>'battery_system'</t>
-  </si>
-  <si>
-    <t>'fixed_fiber_backhaul_per_km'</t>
-  </si>
-  <si>
-    <t>'microwave_backhaul_1m'</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>unit_cost</t>
-  </si>
-  <si>
     <t>area_km2</t>
   </si>
   <si>
@@ -78,13 +66,31 @@
     <t>sectorization</t>
   </si>
   <si>
-    <t>backhaul distance</t>
-  </si>
-  <si>
     <t>total_cost_km2</t>
   </si>
   <si>
     <t>single_sector_antenna_2x2_mimo_dual_band'</t>
+  </si>
+  <si>
+    <t>tco</t>
+  </si>
+  <si>
+    <t>capex</t>
+  </si>
+  <si>
+    <t>opex</t>
+  </si>
+  <si>
+    <t>dicount rate</t>
+  </si>
+  <si>
+    <t>site_rental'</t>
+  </si>
+  <si>
+    <t>power_generator_battery_system'</t>
+  </si>
+  <si>
+    <t>high_speed_backhaul_hub'</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -127,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -300,27 +306,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -636,285 +727,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96BFA1F-2789-476E-929E-B6C9CCBD8911}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="13">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3</v>
+      </c>
+      <c r="G2" s="13">
+        <v>4</v>
+      </c>
+      <c r="H2" s="13">
+        <v>5</v>
+      </c>
+      <c r="I2" s="13">
+        <v>6</v>
+      </c>
+      <c r="J2" s="13">
+        <v>7</v>
+      </c>
+      <c r="K2" s="13">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13">
+        <v>9</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3*0.1</f>
+        <v>150</v>
+      </c>
+      <c r="D3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),D2)</f>
+        <v>144.92753623188406</v>
+      </c>
+      <c r="E3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),E2)</f>
+        <v>140.02660505496047</v>
+      </c>
+      <c r="F3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),F2)</f>
+        <v>135.29140585020335</v>
+      </c>
+      <c r="G3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),G2)</f>
+        <v>130.71633415478587</v>
+      </c>
+      <c r="H3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),H2)</f>
+        <v>126.29597502877863</v>
+      </c>
+      <c r="I3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),I2)</f>
+        <v>122.02509664616292</v>
+      </c>
+      <c r="J3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),J2)</f>
+        <v>117.89864410257287</v>
+      </c>
+      <c r="K3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),K2)</f>
+        <v>113.91173343243759</v>
+      </c>
+      <c r="L3" s="4">
+        <f>$C$3/POWER(1+($D$16/100),L2)</f>
+        <v>110.05964582844213</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM(B3:L3)</f>
+        <v>2791.1529763302283</v>
+      </c>
+      <c r="N3" s="23">
+        <f>M3*Q3*P3</f>
+        <v>38675.350133608328</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C11" si="0">B4*0.1</f>
+        <v>400</v>
+      </c>
+      <c r="D4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),D2)</f>
+        <v>386.47342995169083</v>
+      </c>
+      <c r="E4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),E2)</f>
+        <v>373.40428014656123</v>
+      </c>
+      <c r="F4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),F2)</f>
+        <v>360.77708226720893</v>
+      </c>
+      <c r="G4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),G2)</f>
+        <v>348.57689107942895</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),H2)</f>
+        <v>336.78926674340966</v>
+      </c>
+      <c r="I4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),I2)</f>
+        <v>325.40025772310111</v>
+      </c>
+      <c r="J4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),J2)</f>
+        <v>314.39638427352764</v>
+      </c>
+      <c r="K4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),K2)</f>
+        <v>303.76462248650023</v>
+      </c>
+      <c r="L4" s="4">
+        <f>$C$4/POWER(1+($D$16/100),L2)</f>
+        <v>293.49238887584568</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M11" si="1">SUM(B4:L4)</f>
+        <v>7443.0746035472748</v>
+      </c>
+      <c r="N4" s="3">
+        <f>M4*Q4*P4</f>
+        <v>103134.26702295552</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),D2)</f>
+        <v>966.18357487922708</v>
+      </c>
+      <c r="E5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),E2)</f>
+        <v>933.51070036640306</v>
+      </c>
+      <c r="F5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),F2)</f>
+        <v>901.94270566802243</v>
+      </c>
+      <c r="G5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),G2)</f>
+        <v>871.44222769857242</v>
+      </c>
+      <c r="H5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),H2)</f>
+        <v>841.97316685852422</v>
+      </c>
+      <c r="I5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),I2)</f>
+        <v>813.50064430775274</v>
+      </c>
+      <c r="J5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),J2)</f>
+        <v>785.99096068381914</v>
+      </c>
+      <c r="K5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),K2)</f>
+        <v>759.41155621625057</v>
+      </c>
+      <c r="L5" s="4">
+        <f>$C$5/POWER(1+($D$16/100),L2)</f>
+        <v>733.73097218961414</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>18607.686508868184</v>
+      </c>
+      <c r="N5" s="3">
+        <f>M5*P5</f>
+        <v>85945.222519129587</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <f>B6</f>
+        <v>10000</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6:N9" si="2">M6*P6</f>
+        <v>46188.021535169995</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <f t="shared" ref="M7:M9" si="3">B7</f>
+        <v>5000</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>46188.021535169995</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),D2)</f>
+        <v>14492.753623188408</v>
+      </c>
+      <c r="E10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),E2)</f>
+        <v>14002.660505496046</v>
+      </c>
+      <c r="F10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),F2)</f>
+        <v>13529.140585020335</v>
+      </c>
+      <c r="G10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),G2)</f>
+        <v>13071.633415478585</v>
+      </c>
+      <c r="H10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),H2)</f>
+        <v>12629.597502877863</v>
+      </c>
+      <c r="I10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),I2)</f>
+        <v>12202.509664616291</v>
+      </c>
+      <c r="J10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),J2)</f>
+        <v>11789.864410257287</v>
+      </c>
+      <c r="K10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),K2)</f>
+        <v>11391.173343243758</v>
+      </c>
+      <c r="L10" s="4">
+        <f>$C$10/POWER(1+($D$16/100),L2)</f>
+        <v>11005.964582844212</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM(C10:L10)</f>
+        <v>129115.29763302278</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10" si="4">M10*P10</f>
+        <v>596358.01475939399</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D11" s="4">
+        <f>$C$11/POWER(1+($D$16/100),D2)</f>
+        <v>483.09178743961354</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:L11" si="5">$C$11/POWER(1+($D$16/100),E2)</f>
+        <v>466.75535018320153</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="5"/>
+        <v>450.97135283401121</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="5"/>
+        <v>435.72111384928621</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="5"/>
+        <v>420.98658342926211</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="5"/>
+        <v>406.75032215387637</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="5"/>
+        <v>392.99548034190957</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="5"/>
+        <v>379.70577810812529</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="5"/>
+        <v>366.86548609480707</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM(B11:L11)</f>
+        <v>9303.8432544340922</v>
+      </c>
+      <c r="N11" s="3">
+        <f>M11*P11</f>
+        <v>42972.611259564794</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C12" s="3">
+        <f>B12*0.1</f>
+        <v>1500</v>
+      </c>
+      <c r="D12" s="4">
+        <f>$C$12/POWER(1+($D$16/100),D2)</f>
+        <v>1449.2753623188407</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:L12" si="6">$C$12/POWER(1+($D$16/100),E2)</f>
+        <v>1400.2660505496046</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="6"/>
+        <v>1352.9140585020336</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="6"/>
+        <v>1307.1633415478586</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="6"/>
+        <v>1262.9597502877862</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="6"/>
+        <v>1220.2509664616291</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="6"/>
+        <v>1178.9864410257287</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="6"/>
+        <v>1139.1173343243759</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="6"/>
+        <v>1100.5964582844213</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM(B12:L12)</f>
+        <v>27911.529763302278</v>
+      </c>
+      <c r="N12" s="3">
+        <f>M12*P12</f>
+        <v>128917.83377869439</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="8">
+        <f>B13*0.1</f>
+        <v>200</v>
+      </c>
+      <c r="D13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),D2)</f>
+        <v>193.23671497584542</v>
+      </c>
+      <c r="E13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),E2)</f>
+        <v>186.70214007328062</v>
+      </c>
+      <c r="F13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),F2)</f>
+        <v>180.38854113360446</v>
+      </c>
+      <c r="G13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),G2)</f>
+        <v>174.28844553971447</v>
+      </c>
+      <c r="H13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),H2)</f>
+        <v>168.39463337170483</v>
+      </c>
+      <c r="I13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),I2)</f>
+        <v>162.70012886155055</v>
+      </c>
+      <c r="J13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),J2)</f>
+        <v>157.19819213676382</v>
+      </c>
+      <c r="K13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),K2)</f>
+        <v>151.88231124325011</v>
+      </c>
+      <c r="L13" s="9">
+        <f>$C$13/POWER(1+($D$16/100),L2)</f>
+        <v>146.74619443792284</v>
+      </c>
+      <c r="M13" s="9">
+        <f>SUM(B13:L13)</f>
+        <v>3721.5373017736374</v>
+      </c>
+      <c r="N13" s="8">
+        <f>M13*P13</f>
+        <v>17189.04450382592</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P13" s="10">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C2" s="2">
-        <f>B2*F2*E2</f>
-        <v>20784.609690826499</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B3*F3*E3</f>
-        <v>55425.625842203997</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="2">
-        <f>B4*E4</f>
-        <v>46188.021535169995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C12" si="0">B5*E5</f>
-        <v>9237.6043070340002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>46188.021535169995</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>23094.010767584998</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>46188.021535169995</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>23094.010767584998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>36950.417228136001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>15000</v>
-      </c>
-      <c r="C11" s="2">
-        <f>B11*G11*E11</f>
-        <v>69282.032302754989</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="0"/>
-        <v>18475.208614068</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
-        <f>SUM(C2:C12)</f>
-        <v>394907.58412570343</v>
-      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="N16" s="14">
+        <f>SUM(N3:N13)</f>
+        <v>1151756.4085826825</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>1+D16/100</f>
+        <v>1.0349999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tests/cost_calculation_validation.xlsx
+++ b/tests/cost_calculation_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pysim5g\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE99399-FE93-492B-B83C-5BF75FAC1973}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AEAA1B-A261-4877-ADC6-39E69A7AFDC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2400" windowWidth="14415" windowHeight="13290" xr2:uid="{5486E507-0580-42C6-8825-53BB77455D49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{5486E507-0580-42C6-8825-53BB77455D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
   <si>
     <t>'single_remote_radio_unit'</t>
   </si>
@@ -69,9 +69,6 @@
     <t>total_cost_km2</t>
   </si>
   <si>
-    <t>single_sector_antenna_2x2_mimo_dual_band'</t>
-  </si>
-  <si>
     <t>tco</t>
   </si>
   <si>
@@ -91,6 +88,24 @@
   </si>
   <si>
     <t>high_speed_backhaul_hub'</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>passive_site_sharing</t>
+  </si>
+  <si>
+    <t>passive_backhaul_sharing</t>
+  </si>
+  <si>
+    <t>moran</t>
+  </si>
+  <si>
+    <t>mnos</t>
+  </si>
+  <si>
+    <t>single_sector_antenna'</t>
   </si>
 </sst>
 </file>
@@ -133,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -160,10 +175,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -175,6 +205,36 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -190,13 +250,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -205,28 +278,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -235,10 +293,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -247,13 +303,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -262,72 +314,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -342,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -351,66 +345,64 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,16 +719,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96BFA1F-2789-476E-929E-B6C9CCBD8911}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
@@ -745,480 +738,360 @@
     <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q5" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="13">
+      <c r="R5" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G6" s="9">
         <v>4</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H6" s="9">
         <v>5</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I6" s="9">
         <v>6</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J6" s="9">
         <v>7</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L6" s="9">
         <v>9</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
         <v>1500</v>
       </c>
-      <c r="C3" s="3">
-        <f>B3*0.1</f>
+      <c r="C7" s="3">
+        <f>B7*0.1</f>
         <v>150</v>
       </c>
-      <c r="D3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),D2)</f>
+      <c r="D7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),D6)</f>
         <v>144.92753623188406</v>
       </c>
-      <c r="E3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),E2)</f>
+      <c r="E7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),E6)</f>
         <v>140.02660505496047</v>
       </c>
-      <c r="F3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),F2)</f>
+      <c r="F7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),F6)</f>
         <v>135.29140585020335</v>
       </c>
-      <c r="G3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),G2)</f>
+      <c r="G7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),G6)</f>
         <v>130.71633415478587</v>
       </c>
-      <c r="H3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),H2)</f>
+      <c r="H7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),H6)</f>
         <v>126.29597502877863</v>
       </c>
-      <c r="I3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),I2)</f>
+      <c r="I7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),I6)</f>
         <v>122.02509664616292</v>
       </c>
-      <c r="J3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),J2)</f>
+      <c r="J7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),J6)</f>
         <v>117.89864410257287</v>
       </c>
-      <c r="K3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),K2)</f>
+      <c r="K7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),K6)</f>
         <v>113.91173343243759</v>
       </c>
-      <c r="L3" s="4">
-        <f>$C$3/POWER(1+($D$16/100),L2)</f>
+      <c r="L7" s="4">
+        <f>$C$7/POWER(1+($B$2/100),L6)</f>
         <v>110.05964582844213</v>
       </c>
-      <c r="M3" s="4">
-        <f>SUM(B3:L3)</f>
+      <c r="M7" s="4">
+        <f>SUM(B7:L7)</f>
         <v>2791.1529763302283</v>
       </c>
-      <c r="N3" s="23">
-        <f>M3*Q3*P3</f>
+      <c r="N7" s="11">
+        <f>M7*Q7*P7</f>
         <v>38675.350133608328</v>
       </c>
-      <c r="O3" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="O7" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="R7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B8" s="3">
         <v>4000</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:C11" si="0">B4*0.1</f>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:C15" si="0">B8*0.1</f>
         <v>400</v>
       </c>
-      <c r="D4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),D2)</f>
+      <c r="D8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),D6)</f>
         <v>386.47342995169083</v>
       </c>
-      <c r="E4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),E2)</f>
+      <c r="E8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),E6)</f>
         <v>373.40428014656123</v>
       </c>
-      <c r="F4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),F2)</f>
+      <c r="F8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),F6)</f>
         <v>360.77708226720893</v>
       </c>
-      <c r="G4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),G2)</f>
+      <c r="G8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),G6)</f>
         <v>348.57689107942895</v>
       </c>
-      <c r="H4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),H2)</f>
+      <c r="H8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),H6)</f>
         <v>336.78926674340966</v>
       </c>
-      <c r="I4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),I2)</f>
+      <c r="I8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),I6)</f>
         <v>325.40025772310111</v>
       </c>
-      <c r="J4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),J2)</f>
+      <c r="J8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),J6)</f>
         <v>314.39638427352764</v>
       </c>
-      <c r="K4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),K2)</f>
+      <c r="K8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),K6)</f>
         <v>303.76462248650023</v>
       </c>
-      <c r="L4" s="4">
-        <f>$C$4/POWER(1+($D$16/100),L2)</f>
+      <c r="L8" s="4">
+        <f>$C$8/POWER(1+($B$2/100),L6)</f>
         <v>293.49238887584568</v>
       </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M11" si="1">SUM(B4:L4)</f>
+      <c r="M8" s="4">
+        <f t="shared" ref="M8:M9" si="1">SUM(B8:L8)</f>
         <v>7443.0746035472748</v>
       </c>
-      <c r="N4" s="3">
-        <f>M4*Q4*P4</f>
+      <c r="N8" s="3">
+        <f>M8*Q8*P8</f>
         <v>103134.26702295552</v>
       </c>
-      <c r="O4" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P4" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="O8" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="R8" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
         <v>10000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),D2)</f>
+      <c r="D9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),D6)</f>
         <v>966.18357487922708</v>
       </c>
-      <c r="E5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),E2)</f>
+      <c r="E9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),E6)</f>
         <v>933.51070036640306</v>
       </c>
-      <c r="F5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),F2)</f>
+      <c r="F9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),F6)</f>
         <v>901.94270566802243</v>
       </c>
-      <c r="G5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),G2)</f>
+      <c r="G9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),G6)</f>
         <v>871.44222769857242</v>
       </c>
-      <c r="H5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),H2)</f>
+      <c r="H9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),H6)</f>
         <v>841.97316685852422</v>
       </c>
-      <c r="I5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),I2)</f>
+      <c r="I9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),I6)</f>
         <v>813.50064430775274</v>
       </c>
-      <c r="J5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),J2)</f>
+      <c r="J9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),J6)</f>
         <v>785.99096068381914</v>
       </c>
-      <c r="K5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),K2)</f>
+      <c r="K9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),K6)</f>
         <v>759.41155621625057</v>
       </c>
-      <c r="L5" s="4">
-        <f>$C$5/POWER(1+($D$16/100),L2)</f>
+      <c r="L9" s="4">
+        <f>$C$9/POWER(1+($B$2/100),L6)</f>
         <v>733.73097218961414</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>18607.686508868184</v>
       </c>
-      <c r="N5" s="3">
-        <f>M5*P5</f>
+      <c r="N9" s="3">
+        <f>M9*P9</f>
         <v>85945.222519129587</v>
       </c>
-      <c r="O5" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P5" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="O9" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B10" s="3">
         <v>10000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <f>B6</f>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <f>B10</f>
         <v>10000</v>
       </c>
-      <c r="N6" s="3">
-        <f t="shared" ref="N6:N9" si="2">M6*P6</f>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N13" si="2">M10*P10</f>
         <v>46188.021535169995</v>
       </c>
-      <c r="O6" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P6" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="O10" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <f t="shared" ref="M7:M9" si="3">B7</f>
-        <v>5000</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="2"/>
-        <v>23094.010767584998</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="2"/>
-        <v>46188.021535169995</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P8" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="2"/>
-        <v>23094.010767584998</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P9" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>15000</v>
-      </c>
-      <c r="D10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),D2)</f>
-        <v>14492.753623188408</v>
-      </c>
-      <c r="E10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),E2)</f>
-        <v>14002.660505496046</v>
-      </c>
-      <c r="F10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),F2)</f>
-        <v>13529.140585020335</v>
-      </c>
-      <c r="G10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),G2)</f>
-        <v>13071.633415478585</v>
-      </c>
-      <c r="H10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),H2)</f>
-        <v>12629.597502877863</v>
-      </c>
-      <c r="I10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),I2)</f>
-        <v>12202.509664616291</v>
-      </c>
-      <c r="J10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),J2)</f>
-        <v>11789.864410257287</v>
-      </c>
-      <c r="K10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),K2)</f>
-        <v>11391.173343243758</v>
-      </c>
-      <c r="L10" s="4">
-        <f>$C$10/POWER(1+($D$16/100),L2)</f>
-        <v>11005.964582844212</v>
-      </c>
-      <c r="M10" s="4">
-        <f>SUM(C10:L10)</f>
-        <v>129115.29763302278</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10" si="4">M10*P10</f>
-        <v>596358.01475939399</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P10" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>5000</v>
@@ -1227,227 +1100,2666 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="D11" s="4">
-        <f>$C$11/POWER(1+($D$16/100),D2)</f>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f t="shared" ref="M11:M13" si="3">B11</f>
+        <v>5000</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>46188.021535169995</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),D6)</f>
+        <v>14492.753623188408</v>
+      </c>
+      <c r="E14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),E6)</f>
+        <v>14002.660505496046</v>
+      </c>
+      <c r="F14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),F6)</f>
+        <v>13529.140585020335</v>
+      </c>
+      <c r="G14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),G6)</f>
+        <v>13071.633415478585</v>
+      </c>
+      <c r="H14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),H6)</f>
+        <v>12629.597502877863</v>
+      </c>
+      <c r="I14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),I6)</f>
+        <v>12202.509664616291</v>
+      </c>
+      <c r="J14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),J6)</f>
+        <v>11789.864410257287</v>
+      </c>
+      <c r="K14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),K6)</f>
+        <v>11391.173343243758</v>
+      </c>
+      <c r="L14" s="4">
+        <f>$C$14/POWER(1+($B$2/100),L6)</f>
+        <v>11005.964582844212</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM(C14:L14)</f>
+        <v>129115.29763302278</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" ref="N14" si="4">M14*P14</f>
+        <v>596358.01475939399</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),D6)</f>
         <v>483.09178743961354</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" ref="E11:L11" si="5">$C$11/POWER(1+($D$16/100),E2)</f>
+      <c r="E15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),E6)</f>
         <v>466.75535018320153</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),F6)</f>
+        <v>450.97135283401121</v>
+      </c>
+      <c r="G15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),G6)</f>
+        <v>435.72111384928621</v>
+      </c>
+      <c r="H15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),H6)</f>
+        <v>420.98658342926211</v>
+      </c>
+      <c r="I15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),I6)</f>
+        <v>406.75032215387637</v>
+      </c>
+      <c r="J15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),J6)</f>
+        <v>392.99548034190957</v>
+      </c>
+      <c r="K15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),K6)</f>
+        <v>379.70577810812529</v>
+      </c>
+      <c r="L15" s="4">
+        <f>$C$15/POWER(1+($B$2/100),L6)</f>
+        <v>366.86548609480707</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM(B15:L15)</f>
+        <v>9303.8432544340922</v>
+      </c>
+      <c r="N15" s="3">
+        <f>M15*P15</f>
+        <v>42972.611259564794</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C16" s="3">
+        <f>B16*0.1</f>
+        <v>1500</v>
+      </c>
+      <c r="D16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),D6)</f>
+        <v>1449.2753623188407</v>
+      </c>
+      <c r="E16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),E6)</f>
+        <v>1400.2660505496046</v>
+      </c>
+      <c r="F16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),F6)</f>
+        <v>1352.9140585020336</v>
+      </c>
+      <c r="G16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),G6)</f>
+        <v>1307.1633415478586</v>
+      </c>
+      <c r="H16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),H6)</f>
+        <v>1262.9597502877862</v>
+      </c>
+      <c r="I16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),I6)</f>
+        <v>1220.2509664616291</v>
+      </c>
+      <c r="J16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),J6)</f>
+        <v>1178.9864410257287</v>
+      </c>
+      <c r="K16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),K6)</f>
+        <v>1139.1173343243759</v>
+      </c>
+      <c r="L16" s="4">
+        <f>$C$16/POWER(1+($B$2/100),L6)</f>
+        <v>1100.5964582844213</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM(B16:L16)</f>
+        <v>27911.529763302278</v>
+      </c>
+      <c r="N16" s="3">
+        <f>M16*P16</f>
+        <v>128917.83377869439</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="6">
+        <f>B17*0.1</f>
+        <v>200</v>
+      </c>
+      <c r="D17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),D6)</f>
+        <v>193.23671497584542</v>
+      </c>
+      <c r="E17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),E6)</f>
+        <v>186.70214007328062</v>
+      </c>
+      <c r="F17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),F6)</f>
+        <v>180.38854113360446</v>
+      </c>
+      <c r="G17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),G6)</f>
+        <v>174.28844553971447</v>
+      </c>
+      <c r="H17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),H6)</f>
+        <v>168.39463337170483</v>
+      </c>
+      <c r="I17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),I6)</f>
+        <v>162.70012886155055</v>
+      </c>
+      <c r="J17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),J6)</f>
+        <v>157.19819213676382</v>
+      </c>
+      <c r="K17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),K6)</f>
+        <v>151.88231124325011</v>
+      </c>
+      <c r="L17" s="7">
+        <f>$C$17/POWER(1+($B$2/100),L6)</f>
+        <v>146.74619443792284</v>
+      </c>
+      <c r="M17" s="7">
+        <f>SUM(B17:L17)</f>
+        <v>3721.5373017736374</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17*P17</f>
+        <v>17189.04450382592</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P17" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="19">
+        <f>SUM(N7:N17)</f>
+        <v>1151756.4085826825</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9">
+        <v>6</v>
+      </c>
+      <c r="J23" s="9">
+        <v>7</v>
+      </c>
+      <c r="K23" s="9">
+        <v>8</v>
+      </c>
+      <c r="L23" s="9">
+        <v>9</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="20"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C24" s="3">
+        <f>B24*0.1</f>
+        <v>150</v>
+      </c>
+      <c r="D24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),D23)</f>
+        <v>144.92753623188406</v>
+      </c>
+      <c r="E24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),E23)</f>
+        <v>140.02660505496047</v>
+      </c>
+      <c r="F24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),F23)</f>
+        <v>135.29140585020335</v>
+      </c>
+      <c r="G24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),G23)</f>
+        <v>130.71633415478587</v>
+      </c>
+      <c r="H24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),H23)</f>
+        <v>126.29597502877863</v>
+      </c>
+      <c r="I24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),I23)</f>
+        <v>122.02509664616292</v>
+      </c>
+      <c r="J24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),J23)</f>
+        <v>117.89864410257287</v>
+      </c>
+      <c r="K24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),K23)</f>
+        <v>113.91173343243759</v>
+      </c>
+      <c r="L24" s="4">
+        <f>$C$7/POWER(1+($B$2/100),L23)</f>
+        <v>110.05964582844213</v>
+      </c>
+      <c r="M24" s="4">
+        <f>SUM(B24:L24)</f>
+        <v>2791.1529763302283</v>
+      </c>
+      <c r="N24" s="11">
+        <f>M24*Q24*P24</f>
+        <v>38675.350133608328</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3</v>
+      </c>
+      <c r="R24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:C32" si="5">B25*0.1</f>
+        <v>400</v>
+      </c>
+      <c r="D25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),D23)</f>
+        <v>386.47342995169083</v>
+      </c>
+      <c r="E25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),E23)</f>
+        <v>373.40428014656123</v>
+      </c>
+      <c r="F25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),F23)</f>
+        <v>360.77708226720893</v>
+      </c>
+      <c r="G25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),G23)</f>
+        <v>348.57689107942895</v>
+      </c>
+      <c r="H25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),H23)</f>
+        <v>336.78926674340966</v>
+      </c>
+      <c r="I25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),I23)</f>
+        <v>325.40025772310111</v>
+      </c>
+      <c r="J25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),J23)</f>
+        <v>314.39638427352764</v>
+      </c>
+      <c r="K25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),K23)</f>
+        <v>303.76462248650023</v>
+      </c>
+      <c r="L25" s="4">
+        <f>$C$8/POWER(1+($B$2/100),L23)</f>
+        <v>293.49238887584568</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25:M26" si="6">SUM(B25:L25)</f>
+        <v>7443.0746035472748</v>
+      </c>
+      <c r="N25" s="3">
+        <f>M25*Q25*P25</f>
+        <v>103134.26702295552</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
+      <c r="R25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C26" s="3">
         <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="D26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),D23)</f>
+        <v>966.18357487922708</v>
+      </c>
+      <c r="E26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),E23)</f>
+        <v>933.51070036640306</v>
+      </c>
+      <c r="F26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),F23)</f>
+        <v>901.94270566802243</v>
+      </c>
+      <c r="G26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),G23)</f>
+        <v>871.44222769857242</v>
+      </c>
+      <c r="H26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),H23)</f>
+        <v>841.97316685852422</v>
+      </c>
+      <c r="I26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),I23)</f>
+        <v>813.50064430775274</v>
+      </c>
+      <c r="J26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),J23)</f>
+        <v>785.99096068381914</v>
+      </c>
+      <c r="K26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),K23)</f>
+        <v>759.41155621625057</v>
+      </c>
+      <c r="L26" s="4">
+        <f>$C$9/POWER(1+($B$2/100),L23)</f>
+        <v>733.73097218961414</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="6"/>
+        <v>18607.686508868184</v>
+      </c>
+      <c r="N26" s="3">
+        <f>M26*P26</f>
+        <v>85945.222519129587</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P26" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4">
+        <f>B27</f>
+        <v>10000</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" ref="N27:N33" si="7">M27*P27/R27</f>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P27" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <f t="shared" ref="M28:M30" si="8">B28</f>
+        <v>5000</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="7"/>
+        <v>11547.005383792499</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="N29" s="17">
+        <f>M29*P29/R29</f>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
+        <f t="shared" si="8"/>
+        <v>5000</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="7"/>
+        <v>11547.005383792499</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P30" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),D23)</f>
+        <v>14492.753623188408</v>
+      </c>
+      <c r="E31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),E23)</f>
+        <v>14002.660505496046</v>
+      </c>
+      <c r="F31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),F23)</f>
+        <v>13529.140585020335</v>
+      </c>
+      <c r="G31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),G23)</f>
+        <v>13071.633415478585</v>
+      </c>
+      <c r="H31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),H23)</f>
+        <v>12629.597502877863</v>
+      </c>
+      <c r="I31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),I23)</f>
+        <v>12202.509664616291</v>
+      </c>
+      <c r="J31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),J23)</f>
+        <v>11789.864410257287</v>
+      </c>
+      <c r="K31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),K23)</f>
+        <v>11391.173343243758</v>
+      </c>
+      <c r="L31" s="4">
+        <f>$C$14/POWER(1+($B$2/100),L23)</f>
+        <v>11005.964582844212</v>
+      </c>
+      <c r="M31" s="4">
+        <f>SUM(C31:L31)</f>
+        <v>129115.29763302278</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="7"/>
+        <v>298179.007379697</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P31" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" ref="C32:C35" si="9">B32*0.1</f>
+        <v>500</v>
+      </c>
+      <c r="D32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),D23)</f>
+        <v>483.09178743961354</v>
+      </c>
+      <c r="E32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),E23)</f>
+        <v>466.75535018320153</v>
+      </c>
+      <c r="F32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),F23)</f>
         <v>450.97135283401121</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="5"/>
+      <c r="G32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),G23)</f>
         <v>435.72111384928621</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="5"/>
+      <c r="H32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),H23)</f>
         <v>420.98658342926211</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="5"/>
+      <c r="I32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),I23)</f>
         <v>406.75032215387637</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="5"/>
+      <c r="J32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),J23)</f>
         <v>392.99548034190957</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="5"/>
+      <c r="K32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),K23)</f>
         <v>379.70577810812529</v>
       </c>
-      <c r="L11" s="4">
-        <f t="shared" si="5"/>
+      <c r="L32" s="4">
+        <f>$C$15/POWER(1+($B$2/100),L23)</f>
         <v>366.86548609480707</v>
       </c>
-      <c r="M11" s="4">
-        <f>SUM(B11:L11)</f>
+      <c r="M32" s="4">
+        <f>SUM(B32:L32)</f>
         <v>9303.8432544340922</v>
       </c>
-      <c r="N11" s="3">
-        <f>M11*P11</f>
+      <c r="N32" s="3">
+        <f t="shared" si="7"/>
+        <v>21486.305629782397</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P32" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C33" s="3">
+        <f>B33*0.1</f>
+        <v>1500</v>
+      </c>
+      <c r="D33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),D23)</f>
+        <v>1449.2753623188407</v>
+      </c>
+      <c r="E33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),E23)</f>
+        <v>1400.2660505496046</v>
+      </c>
+      <c r="F33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),F23)</f>
+        <v>1352.9140585020336</v>
+      </c>
+      <c r="G33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),G23)</f>
+        <v>1307.1633415478586</v>
+      </c>
+      <c r="H33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),H23)</f>
+        <v>1262.9597502877862</v>
+      </c>
+      <c r="I33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),I23)</f>
+        <v>1220.2509664616291</v>
+      </c>
+      <c r="J33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),J23)</f>
+        <v>1178.9864410257287</v>
+      </c>
+      <c r="K33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),K23)</f>
+        <v>1139.1173343243759</v>
+      </c>
+      <c r="L33" s="4">
+        <f>$C$16/POWER(1+($B$2/100),L23)</f>
+        <v>1100.5964582844213</v>
+      </c>
+      <c r="M33" s="4">
+        <f>SUM(B33:L33)</f>
+        <v>27911.529763302278</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="7"/>
+        <v>128917.83377869439</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P33" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C34" s="6">
+        <f>B34*0.1</f>
+        <v>200</v>
+      </c>
+      <c r="D34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),D23)</f>
+        <v>193.23671497584542</v>
+      </c>
+      <c r="E34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),E23)</f>
+        <v>186.70214007328062</v>
+      </c>
+      <c r="F34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),F23)</f>
+        <v>180.38854113360446</v>
+      </c>
+      <c r="G34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),G23)</f>
+        <v>174.28844553971447</v>
+      </c>
+      <c r="H34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),H23)</f>
+        <v>168.39463337170483</v>
+      </c>
+      <c r="I34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),I23)</f>
+        <v>162.70012886155055</v>
+      </c>
+      <c r="J34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),J23)</f>
+        <v>157.19819213676382</v>
+      </c>
+      <c r="K34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),K23)</f>
+        <v>151.88231124325011</v>
+      </c>
+      <c r="L34" s="7">
+        <f>$C$17/POWER(1+($B$2/100),L23)</f>
+        <v>146.74619443792284</v>
+      </c>
+      <c r="M34" s="7">
+        <f>SUM(B34:L34)</f>
+        <v>3721.5373017736374</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" ref="N32:N34" si="10">M34*P34/R34</f>
+        <v>17189.04450382592</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P34" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="19">
+        <f>SUM(N24:N34)</f>
+        <v>762809.06327044812</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="9">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>3</v>
+      </c>
+      <c r="G40" s="9">
+        <v>4</v>
+      </c>
+      <c r="H40" s="9">
+        <v>5</v>
+      </c>
+      <c r="I40" s="9">
+        <v>6</v>
+      </c>
+      <c r="J40" s="9">
+        <v>7</v>
+      </c>
+      <c r="K40" s="9">
+        <v>8</v>
+      </c>
+      <c r="L40" s="9">
+        <v>9</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="20"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C41" s="3">
+        <f>B41*0.1</f>
+        <v>150</v>
+      </c>
+      <c r="D41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),D40)</f>
+        <v>144.92753623188406</v>
+      </c>
+      <c r="E41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),E40)</f>
+        <v>140.02660505496047</v>
+      </c>
+      <c r="F41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),F40)</f>
+        <v>135.29140585020335</v>
+      </c>
+      <c r="G41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),G40)</f>
+        <v>130.71633415478587</v>
+      </c>
+      <c r="H41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),H40)</f>
+        <v>126.29597502877863</v>
+      </c>
+      <c r="I41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),I40)</f>
+        <v>122.02509664616292</v>
+      </c>
+      <c r="J41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),J40)</f>
+        <v>117.89864410257287</v>
+      </c>
+      <c r="K41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),K40)</f>
+        <v>113.91173343243759</v>
+      </c>
+      <c r="L41" s="4">
+        <f>$C$7/POWER(1+($B$2/100),L40)</f>
+        <v>110.05964582844213</v>
+      </c>
+      <c r="M41" s="4">
+        <f>SUM(B41:L41)</f>
+        <v>2791.1529763302283</v>
+      </c>
+      <c r="N41" s="11">
+        <f>M41*Q41*P41/R41</f>
+        <v>38675.350133608328</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P41" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>3</v>
+      </c>
+      <c r="R41" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:C49" si="11">B42*0.1</f>
+        <v>400</v>
+      </c>
+      <c r="D42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),D40)</f>
+        <v>386.47342995169083</v>
+      </c>
+      <c r="E42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),E40)</f>
+        <v>373.40428014656123</v>
+      </c>
+      <c r="F42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),F40)</f>
+        <v>360.77708226720893</v>
+      </c>
+      <c r="G42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),G40)</f>
+        <v>348.57689107942895</v>
+      </c>
+      <c r="H42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),H40)</f>
+        <v>336.78926674340966</v>
+      </c>
+      <c r="I42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),I40)</f>
+        <v>325.40025772310111</v>
+      </c>
+      <c r="J42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),J40)</f>
+        <v>314.39638427352764</v>
+      </c>
+      <c r="K42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),K40)</f>
+        <v>303.76462248650023</v>
+      </c>
+      <c r="L42" s="4">
+        <f>$C$8/POWER(1+($B$2/100),L40)</f>
+        <v>293.49238887584568</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" ref="M42:M43" si="12">SUM(B42:L42)</f>
+        <v>7443.0746035472748</v>
+      </c>
+      <c r="N42" s="3">
+        <f>M42*Q42*P42/R42</f>
+        <v>103134.26702295552</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P42" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>3</v>
+      </c>
+      <c r="R42" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="D43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),D40)</f>
+        <v>966.18357487922708</v>
+      </c>
+      <c r="E43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),E40)</f>
+        <v>933.51070036640306</v>
+      </c>
+      <c r="F43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),F40)</f>
+        <v>901.94270566802243</v>
+      </c>
+      <c r="G43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),G40)</f>
+        <v>871.44222769857242</v>
+      </c>
+      <c r="H43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),H40)</f>
+        <v>841.97316685852422</v>
+      </c>
+      <c r="I43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),I40)</f>
+        <v>813.50064430775274</v>
+      </c>
+      <c r="J43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),J40)</f>
+        <v>785.99096068381914</v>
+      </c>
+      <c r="K43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),K40)</f>
+        <v>759.41155621625057</v>
+      </c>
+      <c r="L43" s="4">
+        <f>$C$9/POWER(1+($B$2/100),L40)</f>
+        <v>733.73097218961414</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="12"/>
+        <v>18607.686508868184</v>
+      </c>
+      <c r="N43" s="3">
+        <f>M43*P43/R43</f>
+        <v>85945.222519129587</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P43" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4">
+        <f>B44</f>
+        <v>10000</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" ref="N44:N45" si="13">M44*P44/R44</f>
+        <v>46188.021535169995</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P44" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4">
+        <f t="shared" ref="M45:M47" si="14">B45</f>
+        <v>5000</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="13"/>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P45" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4">
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="N46" s="3">
+        <f>M46*P46/R46</f>
+        <v>46188.021535169995</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P46" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
+        <f t="shared" si="14"/>
+        <v>5000</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" ref="N47:N51" si="15">M47*P47/R47</f>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P47" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),D40)</f>
+        <v>14492.753623188408</v>
+      </c>
+      <c r="E48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),E40)</f>
+        <v>14002.660505496046</v>
+      </c>
+      <c r="F48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),F40)</f>
+        <v>13529.140585020335</v>
+      </c>
+      <c r="G48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),G40)</f>
+        <v>13071.633415478585</v>
+      </c>
+      <c r="H48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),H40)</f>
+        <v>12629.597502877863</v>
+      </c>
+      <c r="I48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),I40)</f>
+        <v>12202.509664616291</v>
+      </c>
+      <c r="J48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),J40)</f>
+        <v>11789.864410257287</v>
+      </c>
+      <c r="K48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),K40)</f>
+        <v>11391.173343243758</v>
+      </c>
+      <c r="L48" s="4">
+        <f>$C$14/POWER(1+($B$2/100),L40)</f>
+        <v>11005.964582844212</v>
+      </c>
+      <c r="M48" s="4">
+        <f>SUM(C48:L48)</f>
+        <v>129115.29763302278</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="15"/>
+        <v>298179.007379697</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P48" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ref="C49:C52" si="16">B49*0.1</f>
+        <v>500</v>
+      </c>
+      <c r="D49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),D40)</f>
+        <v>483.09178743961354</v>
+      </c>
+      <c r="E49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),E40)</f>
+        <v>466.75535018320153</v>
+      </c>
+      <c r="F49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),F40)</f>
+        <v>450.97135283401121</v>
+      </c>
+      <c r="G49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),G40)</f>
+        <v>435.72111384928621</v>
+      </c>
+      <c r="H49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),H40)</f>
+        <v>420.98658342926211</v>
+      </c>
+      <c r="I49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),I40)</f>
+        <v>406.75032215387637</v>
+      </c>
+      <c r="J49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),J40)</f>
+        <v>392.99548034190957</v>
+      </c>
+      <c r="K49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),K40)</f>
+        <v>379.70577810812529</v>
+      </c>
+      <c r="L49" s="4">
+        <f>$C$15/POWER(1+($B$2/100),L40)</f>
+        <v>366.86548609480707</v>
+      </c>
+      <c r="M49" s="4">
+        <f>SUM(B49:L49)</f>
+        <v>9303.8432544340922</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="15"/>
+        <v>21486.305629782397</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P49" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C50" s="3">
+        <f>B50*0.1</f>
+        <v>1500</v>
+      </c>
+      <c r="D50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),D40)</f>
+        <v>1449.2753623188407</v>
+      </c>
+      <c r="E50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),E40)</f>
+        <v>1400.2660505496046</v>
+      </c>
+      <c r="F50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),F40)</f>
+        <v>1352.9140585020336</v>
+      </c>
+      <c r="G50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),G40)</f>
+        <v>1307.1633415478586</v>
+      </c>
+      <c r="H50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),H40)</f>
+        <v>1262.9597502877862</v>
+      </c>
+      <c r="I50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),I40)</f>
+        <v>1220.2509664616291</v>
+      </c>
+      <c r="J50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),J40)</f>
+        <v>1178.9864410257287</v>
+      </c>
+      <c r="K50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),K40)</f>
+        <v>1139.1173343243759</v>
+      </c>
+      <c r="L50" s="4">
+        <f>$C$16/POWER(1+($B$2/100),L40)</f>
+        <v>1100.5964582844213</v>
+      </c>
+      <c r="M50" s="4">
+        <f>SUM(B50:L50)</f>
+        <v>27911.529763302278</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="15"/>
+        <v>64458.916889347194</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P50" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C51" s="6">
+        <f>B51*0.1</f>
+        <v>200</v>
+      </c>
+      <c r="D51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),D40)</f>
+        <v>193.23671497584542</v>
+      </c>
+      <c r="E51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),E40)</f>
+        <v>186.70214007328062</v>
+      </c>
+      <c r="F51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),F40)</f>
+        <v>180.38854113360446</v>
+      </c>
+      <c r="G51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),G40)</f>
+        <v>174.28844553971447</v>
+      </c>
+      <c r="H51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),H40)</f>
+        <v>168.39463337170483</v>
+      </c>
+      <c r="I51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),I40)</f>
+        <v>162.70012886155055</v>
+      </c>
+      <c r="J51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),J40)</f>
+        <v>157.19819213676382</v>
+      </c>
+      <c r="K51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),K40)</f>
+        <v>151.88231124325011</v>
+      </c>
+      <c r="L51" s="7">
+        <f>$C$17/POWER(1+($B$2/100),L40)</f>
+        <v>146.74619443792284</v>
+      </c>
+      <c r="M51" s="7">
+        <f>SUM(B51:L51)</f>
+        <v>3721.5373017736374</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="15"/>
+        <v>8594.5222519129602</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P51" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="19">
+        <f>SUM(N41:N51)</f>
+        <v>759037.65643194283</v>
+      </c>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="25"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="9">
+        <v>0</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="9">
+        <v>3</v>
+      </c>
+      <c r="G57" s="9">
+        <v>4</v>
+      </c>
+      <c r="H57" s="9">
+        <v>5</v>
+      </c>
+      <c r="I57" s="9">
+        <v>6</v>
+      </c>
+      <c r="J57" s="9">
+        <v>7</v>
+      </c>
+      <c r="K57" s="9">
+        <v>8</v>
+      </c>
+      <c r="L57" s="9">
+        <v>9</v>
+      </c>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="20"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C58" s="3">
+        <f>B58*0.1</f>
+        <v>150</v>
+      </c>
+      <c r="D58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),D57)</f>
+        <v>144.92753623188406</v>
+      </c>
+      <c r="E58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),E57)</f>
+        <v>140.02660505496047</v>
+      </c>
+      <c r="F58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),F57)</f>
+        <v>135.29140585020335</v>
+      </c>
+      <c r="G58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),G57)</f>
+        <v>130.71633415478587</v>
+      </c>
+      <c r="H58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),H57)</f>
+        <v>126.29597502877863</v>
+      </c>
+      <c r="I58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),I57)</f>
+        <v>122.02509664616292</v>
+      </c>
+      <c r="J58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),J57)</f>
+        <v>117.89864410257287</v>
+      </c>
+      <c r="K58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),K57)</f>
+        <v>113.91173343243759</v>
+      </c>
+      <c r="L58" s="4">
+        <f>$C$7/POWER(1+($B$2/100),L57)</f>
+        <v>110.05964582844213</v>
+      </c>
+      <c r="M58" s="4">
+        <f>SUM(B58:L58)</f>
+        <v>2791.1529763302283</v>
+      </c>
+      <c r="N58" s="11">
+        <f>M58*Q58*P58/R58</f>
+        <v>19337.675066804164</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P58" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>3</v>
+      </c>
+      <c r="R58" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" ref="C59:C66" si="17">B59*0.1</f>
+        <v>400</v>
+      </c>
+      <c r="D59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),D57)</f>
+        <v>386.47342995169083</v>
+      </c>
+      <c r="E59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),E57)</f>
+        <v>373.40428014656123</v>
+      </c>
+      <c r="F59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),F57)</f>
+        <v>360.77708226720893</v>
+      </c>
+      <c r="G59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),G57)</f>
+        <v>348.57689107942895</v>
+      </c>
+      <c r="H59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),H57)</f>
+        <v>336.78926674340966</v>
+      </c>
+      <c r="I59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),I57)</f>
+        <v>325.40025772310111</v>
+      </c>
+      <c r="J59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),J57)</f>
+        <v>314.39638427352764</v>
+      </c>
+      <c r="K59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),K57)</f>
+        <v>303.76462248650023</v>
+      </c>
+      <c r="L59" s="4">
+        <f>$C$8/POWER(1+($B$2/100),L57)</f>
+        <v>293.49238887584568</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" ref="M59:M60" si="18">SUM(B59:L59)</f>
+        <v>7443.0746035472748</v>
+      </c>
+      <c r="N59" s="3">
+        <f>M59*Q59*P59/R59</f>
+        <v>51567.133511477761</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P59" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>3</v>
+      </c>
+      <c r="R59" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="17"/>
+        <v>1000</v>
+      </c>
+      <c r="D60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),D57)</f>
+        <v>966.18357487922708</v>
+      </c>
+      <c r="E60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),E57)</f>
+        <v>933.51070036640306</v>
+      </c>
+      <c r="F60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),F57)</f>
+        <v>901.94270566802243</v>
+      </c>
+      <c r="G60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),G57)</f>
+        <v>871.44222769857242</v>
+      </c>
+      <c r="H60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),H57)</f>
+        <v>841.97316685852422</v>
+      </c>
+      <c r="I60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),I57)</f>
+        <v>813.50064430775274</v>
+      </c>
+      <c r="J60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),J57)</f>
+        <v>785.99096068381914</v>
+      </c>
+      <c r="K60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),K57)</f>
+        <v>759.41155621625057</v>
+      </c>
+      <c r="L60" s="4">
+        <f>$C$9/POWER(1+($B$2/100),L57)</f>
+        <v>733.73097218961414</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="18"/>
+        <v>18607.686508868184</v>
+      </c>
+      <c r="N60" s="3">
+        <f>M60*P60/R60</f>
         <v>42972.611259564794</v>
       </c>
-      <c r="O11" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P11" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="O60" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P60" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="17"/>
+        <v>1000</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4">
+        <f>B61</f>
+        <v>10000</v>
+      </c>
+      <c r="N61" s="17">
+        <f>M61*P61/R61</f>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P61" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4">
+        <f t="shared" ref="M62:M64" si="19">B62</f>
+        <v>5000</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" ref="N62" si="20">M62*P62/R62</f>
+        <v>11547.005383792499</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P62" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="17"/>
+        <v>1000</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4">
+        <f t="shared" si="19"/>
+        <v>10000</v>
+      </c>
+      <c r="N63" s="3">
+        <f>M63*P63/R63</f>
+        <v>23094.010767584998</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P63" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4">
+        <f t="shared" si="19"/>
+        <v>5000</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" ref="N64:N68" si="21">M64*P64/R64</f>
+        <v>11547.005383792499</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P64" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3">
         <v>15000</v>
       </c>
-      <c r="C12" s="3">
-        <f>B12*0.1</f>
+      <c r="D65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),D57)</f>
+        <v>14492.753623188408</v>
+      </c>
+      <c r="E65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),E57)</f>
+        <v>14002.660505496046</v>
+      </c>
+      <c r="F65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),F57)</f>
+        <v>13529.140585020335</v>
+      </c>
+      <c r="G65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),G57)</f>
+        <v>13071.633415478585</v>
+      </c>
+      <c r="H65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),H57)</f>
+        <v>12629.597502877863</v>
+      </c>
+      <c r="I65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),I57)</f>
+        <v>12202.509664616291</v>
+      </c>
+      <c r="J65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),J57)</f>
+        <v>11789.864410257287</v>
+      </c>
+      <c r="K65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),K57)</f>
+        <v>11391.173343243758</v>
+      </c>
+      <c r="L65" s="4">
+        <f>$C$14/POWER(1+($B$2/100),L57)</f>
+        <v>11005.964582844212</v>
+      </c>
+      <c r="M65" s="4">
+        <f>SUM(C65:L65)</f>
+        <v>129115.29763302278</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="21"/>
+        <v>298179.007379697</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P65" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66:C69" si="22">B66*0.1</f>
+        <v>500</v>
+      </c>
+      <c r="D66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),D57)</f>
+        <v>483.09178743961354</v>
+      </c>
+      <c r="E66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),E57)</f>
+        <v>466.75535018320153</v>
+      </c>
+      <c r="F66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),F57)</f>
+        <v>450.97135283401121</v>
+      </c>
+      <c r="G66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),G57)</f>
+        <v>435.72111384928621</v>
+      </c>
+      <c r="H66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),H57)</f>
+        <v>420.98658342926211</v>
+      </c>
+      <c r="I66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),I57)</f>
+        <v>406.75032215387637</v>
+      </c>
+      <c r="J66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),J57)</f>
+        <v>392.99548034190957</v>
+      </c>
+      <c r="K66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),K57)</f>
+        <v>379.70577810812529</v>
+      </c>
+      <c r="L66" s="4">
+        <f>$C$15/POWER(1+($B$2/100),L57)</f>
+        <v>366.86548609480707</v>
+      </c>
+      <c r="M66" s="4">
+        <f>SUM(B66:L66)</f>
+        <v>9303.8432544340922</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="21"/>
+        <v>21486.305629782397</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P66" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C67" s="3">
+        <f>B67*0.1</f>
         <v>1500</v>
       </c>
-      <c r="D12" s="4">
-        <f>$C$12/POWER(1+($D$16/100),D2)</f>
+      <c r="D67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),D57)</f>
         <v>1449.2753623188407</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" ref="E12:L12" si="6">$C$12/POWER(1+($D$16/100),E2)</f>
+      <c r="E67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),E57)</f>
         <v>1400.2660505496046</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="6"/>
+      <c r="F67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),F57)</f>
         <v>1352.9140585020336</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="6"/>
+      <c r="G67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),G57)</f>
         <v>1307.1633415478586</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="6"/>
+      <c r="H67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),H57)</f>
         <v>1262.9597502877862</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="6"/>
+      <c r="I67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),I57)</f>
         <v>1220.2509664616291</v>
       </c>
-      <c r="J12" s="4">
-        <f t="shared" si="6"/>
+      <c r="J67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),J57)</f>
         <v>1178.9864410257287</v>
       </c>
-      <c r="K12" s="4">
-        <f t="shared" si="6"/>
+      <c r="K67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),K57)</f>
         <v>1139.1173343243759</v>
       </c>
-      <c r="L12" s="4">
-        <f t="shared" si="6"/>
+      <c r="L67" s="4">
+        <f>$C$16/POWER(1+($B$2/100),L57)</f>
         <v>1100.5964582844213</v>
       </c>
-      <c r="M12" s="4">
-        <f>SUM(B12:L12)</f>
+      <c r="M67" s="4">
+        <f>SUM(B67:L67)</f>
         <v>27911.529763302278</v>
       </c>
-      <c r="N12" s="3">
-        <f>M12*P12</f>
-        <v>128917.83377869439</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P12" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="N67" s="3">
+        <f t="shared" si="21"/>
+        <v>64458.916889347194</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P67" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="21">
         <v>2</v>
       </c>
-      <c r="B13" s="8">
+    </row>
+    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="6">
         <v>2000</v>
       </c>
-      <c r="C13" s="8">
-        <f>B13*0.1</f>
+      <c r="C68" s="6">
+        <f>B68*0.1</f>
         <v>200</v>
       </c>
-      <c r="D13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),D2)</f>
+      <c r="D68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),D57)</f>
         <v>193.23671497584542</v>
       </c>
-      <c r="E13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),E2)</f>
+      <c r="E68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),E57)</f>
         <v>186.70214007328062</v>
       </c>
-      <c r="F13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),F2)</f>
+      <c r="F68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),F57)</f>
         <v>180.38854113360446</v>
       </c>
-      <c r="G13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),G2)</f>
+      <c r="G68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),G57)</f>
         <v>174.28844553971447</v>
       </c>
-      <c r="H13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),H2)</f>
+      <c r="H68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),H57)</f>
         <v>168.39463337170483</v>
       </c>
-      <c r="I13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),I2)</f>
+      <c r="I68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),I57)</f>
         <v>162.70012886155055</v>
       </c>
-      <c r="J13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),J2)</f>
+      <c r="J68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),J57)</f>
         <v>157.19819213676382</v>
       </c>
-      <c r="K13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),K2)</f>
+      <c r="K68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),K57)</f>
         <v>151.88231124325011</v>
       </c>
-      <c r="L13" s="9">
-        <f>$C$13/POWER(1+($D$16/100),L2)</f>
+      <c r="L68" s="7">
+        <f>$C$17/POWER(1+($B$2/100),L57)</f>
         <v>146.74619443792284</v>
       </c>
-      <c r="M13" s="9">
-        <f>SUM(B13:L13)</f>
+      <c r="M68" s="7">
+        <f>SUM(B68:L68)</f>
         <v>3721.5373017736374</v>
       </c>
-      <c r="N13" s="8">
-        <f>M13*P13</f>
-        <v>17189.04450382592</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0.21650635094610901</v>
-      </c>
-      <c r="P13" s="10">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="15">
-        <v>3.5</v>
-      </c>
-      <c r="N16" s="14">
-        <f>SUM(N3:N13)</f>
-        <v>1151756.4085826825</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <f>1+D16/100</f>
-        <v>1.0349999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="24"/>
+      <c r="N68" s="6">
+        <f t="shared" si="21"/>
+        <v>8594.5222519129602</v>
+      </c>
+      <c r="O68" s="8">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="P68" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="19">
+        <f>SUM(N58:N68)</f>
+        <v>575878.20429134124</v>
+      </c>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F75" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
+  <mergeCells count="40">
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="A55:R55"/>
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tests/cost_calculation_validation.xlsx
+++ b/tests/cost_calculation_validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\pysim5g\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AEAA1B-A261-4877-ADC6-39E69A7AFDC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A77389C-2BD2-4EBB-94AB-EF22832D3634}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{5486E507-0580-42C6-8825-53BB77455D49}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
   <si>
     <t>'single_remote_radio_unit'</t>
   </si>
@@ -107,6 +107,15 @@
   <si>
     <t>single_sector_antenna'</t>
   </si>
+  <si>
+    <t>% saving on baseline</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Percentage share of cost</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -326,12 +335,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,22 +452,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,14 +469,38 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,6 +509,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -719,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96BFA1F-2789-476E-929E-B6C9CCBD8911}">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,122 +873,150 @@
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="U4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="Q5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="R5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="S5" s="26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9">
+      <c r="U5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="19">
+        <f>100-N35/N18*100</f>
+        <v>30.051505965447333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="24">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="24">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="24">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="24">
         <v>4</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="24">
         <v>5</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="24">
         <v>6</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="24">
         <v>7</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="24">
         <v>8</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="24">
         <v>9</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="26"/>
+      <c r="U6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="19">
+        <f>100-N52/N18*100</f>
+        <v>30.453975023957355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -860,205 +1028,224 @@
         <v>150</v>
       </c>
       <c r="D7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),D6)</f>
+        <f t="shared" ref="D7:L7" si="0">$C$7/POWER(1+($B$2/100),D6)</f>
         <v>144.92753623188406</v>
       </c>
       <c r="E7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),E6)</f>
+        <f t="shared" si="0"/>
         <v>140.02660505496047</v>
       </c>
       <c r="F7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),F6)</f>
+        <f t="shared" si="0"/>
         <v>135.29140585020335</v>
       </c>
       <c r="G7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),G6)</f>
+        <f t="shared" si="0"/>
         <v>130.71633415478587</v>
       </c>
       <c r="H7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),H6)</f>
+        <f t="shared" si="0"/>
         <v>126.29597502877863</v>
       </c>
       <c r="I7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),I6)</f>
+        <f t="shared" si="0"/>
         <v>122.02509664616292</v>
       </c>
       <c r="J7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),J6)</f>
+        <f t="shared" si="0"/>
         <v>117.89864410257287</v>
       </c>
       <c r="K7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),K6)</f>
+        <f t="shared" si="0"/>
         <v>113.91173343243759</v>
       </c>
       <c r="L7" s="4">
-        <f>$C$7/POWER(1+($B$2/100),L6)</f>
+        <f t="shared" si="0"/>
         <v>110.05964582844213</v>
       </c>
       <c r="M7" s="4">
         <f>SUM(B7:L7)</f>
         <v>2791.1529763302283</v>
       </c>
-      <c r="N7" s="11">
-        <f>M7*Q7*P7</f>
+      <c r="N7" s="9">
+        <f>M7*R7*Q7</f>
         <v>38675.350133608328</v>
       </c>
-      <c r="O7" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O7" s="9">
+        <f>N7/$N$18*100</f>
+        <v>4.1272746278384833</v>
       </c>
       <c r="P7" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q7" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R7" s="1">
         <v>3</v>
       </c>
-      <c r="R7" s="21">
+      <c r="S7" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="U7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="21">
+        <f>100-N69/N18*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3">
         <v>4000</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:C15" si="0">B8*0.1</f>
+        <f t="shared" ref="C8:C15" si="1">B8*0.1</f>
         <v>400</v>
       </c>
       <c r="D8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),D6)</f>
+        <f t="shared" ref="D8:L8" si="2">$C$8/POWER(1+($B$2/100),D6)</f>
         <v>386.47342995169083</v>
       </c>
       <c r="E8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),E6)</f>
+        <f t="shared" si="2"/>
         <v>373.40428014656123</v>
       </c>
       <c r="F8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),F6)</f>
+        <f t="shared" si="2"/>
         <v>360.77708226720893</v>
       </c>
       <c r="G8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),G6)</f>
+        <f t="shared" si="2"/>
         <v>348.57689107942895</v>
       </c>
       <c r="H8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),H6)</f>
+        <f t="shared" si="2"/>
         <v>336.78926674340966</v>
       </c>
       <c r="I8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),I6)</f>
+        <f t="shared" si="2"/>
         <v>325.40025772310111</v>
       </c>
       <c r="J8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),J6)</f>
+        <f t="shared" si="2"/>
         <v>314.39638427352764</v>
       </c>
       <c r="K8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),K6)</f>
+        <f t="shared" si="2"/>
         <v>303.76462248650023</v>
       </c>
       <c r="L8" s="4">
-        <f>$C$8/POWER(1+($B$2/100),L6)</f>
+        <f t="shared" si="2"/>
         <v>293.49238887584568</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ref="M8:M9" si="1">SUM(B8:L8)</f>
+        <f t="shared" ref="M8:M9" si="3">SUM(B8:L8)</f>
         <v>7443.0746035472748</v>
       </c>
       <c r="N8" s="3">
-        <f>M8*Q8*P8</f>
+        <f>M8*R8*Q8</f>
         <v>103134.26702295552</v>
       </c>
-      <c r="O8" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O8" s="9">
+        <f t="shared" ref="O8:O17" si="4">N8/$N$18*100</f>
+        <v>11.006065674235954</v>
       </c>
       <c r="P8" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q8" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R8" s="1">
         <v>3</v>
       </c>
-      <c r="R8" s="21">
+      <c r="S8" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3">
         <v>10000</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="D9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),D6)</f>
+        <f t="shared" ref="D9:L9" si="5">$C$9/POWER(1+($B$2/100),D6)</f>
         <v>966.18357487922708</v>
       </c>
       <c r="E9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),E6)</f>
+        <f t="shared" si="5"/>
         <v>933.51070036640306</v>
       </c>
       <c r="F9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),F6)</f>
+        <f t="shared" si="5"/>
         <v>901.94270566802243</v>
       </c>
       <c r="G9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),G6)</f>
+        <f t="shared" si="5"/>
         <v>871.44222769857242</v>
       </c>
       <c r="H9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),H6)</f>
+        <f t="shared" si="5"/>
         <v>841.97316685852422</v>
       </c>
       <c r="I9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),I6)</f>
+        <f t="shared" si="5"/>
         <v>813.50064430775274</v>
       </c>
       <c r="J9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),J6)</f>
+        <f t="shared" si="5"/>
         <v>785.99096068381914</v>
       </c>
       <c r="K9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),K6)</f>
+        <f t="shared" si="5"/>
         <v>759.41155621625057</v>
       </c>
       <c r="L9" s="4">
-        <f>$C$9/POWER(1+($B$2/100),L6)</f>
+        <f t="shared" si="5"/>
         <v>733.73097218961414</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18607.686508868184</v>
       </c>
       <c r="N9" s="3">
-        <f>M9*P9</f>
+        <f>M9*Q9</f>
         <v>85945.222519129587</v>
       </c>
-      <c r="O9" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O9" s="9">
+        <f t="shared" si="4"/>
+        <v>9.1717213951966272</v>
       </c>
       <c r="P9" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3">
         <v>10000</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="D10" s="4"/>
@@ -1075,29 +1262,33 @@
         <v>10000</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ref="N10:N13" si="2">M10*P10</f>
+        <f>M10*Q10</f>
         <v>46188.021535169995</v>
       </c>
-      <c r="O10" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O10" s="9">
+        <f t="shared" si="4"/>
+        <v>4.9289960849380723</v>
       </c>
       <c r="P10" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>5000</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="D11" s="4"/>
@@ -1110,33 +1301,37 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
-        <f t="shared" ref="M11:M13" si="3">B11</f>
+        <f t="shared" ref="M11:M13" si="6">B11</f>
         <v>5000</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f>M11*Q11</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O11" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O11" s="9">
+        <f t="shared" si="4"/>
+        <v>2.4644980424690361</v>
       </c>
       <c r="P11" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3">
         <v>10000</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="D12" s="4"/>
@@ -1149,33 +1344,37 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="2"/>
+        <f>M12*Q12</f>
         <v>46188.021535169995</v>
       </c>
-      <c r="O12" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O12" s="9">
+        <f t="shared" si="4"/>
+        <v>4.9289960849380723</v>
       </c>
       <c r="P12" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3">
         <v>5000</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="D13" s="4"/>
@@ -1188,88 +1387,96 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="2"/>
+        <f>M13*Q13</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O13" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O13" s="9">
+        <f t="shared" si="4"/>
+        <v>2.4644980424690361</v>
       </c>
       <c r="P13" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
-        <v>15000</v>
+        <v>9600</v>
       </c>
       <c r="D14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),D6)</f>
-        <v>14492.753623188408</v>
+        <f t="shared" ref="D14:L14" si="7">$C$14/POWER(1+($B$2/100),D6)</f>
+        <v>9275.36231884058</v>
       </c>
       <c r="E14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),E6)</f>
-        <v>14002.660505496046</v>
+        <f t="shared" si="7"/>
+        <v>8961.7027235174701</v>
       </c>
       <c r="F14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),F6)</f>
-        <v>13529.140585020335</v>
+        <f t="shared" si="7"/>
+        <v>8658.6499744130142</v>
       </c>
       <c r="G14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),G6)</f>
-        <v>13071.633415478585</v>
+        <f t="shared" si="7"/>
+        <v>8365.8453859062956</v>
       </c>
       <c r="H14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),H6)</f>
-        <v>12629.597502877863</v>
+        <f t="shared" si="7"/>
+        <v>8082.9424018418322</v>
       </c>
       <c r="I14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),I6)</f>
-        <v>12202.509664616291</v>
+        <f t="shared" si="7"/>
+        <v>7809.606185354427</v>
       </c>
       <c r="J14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),J6)</f>
-        <v>11789.864410257287</v>
+        <f t="shared" si="7"/>
+        <v>7545.5132225646639</v>
       </c>
       <c r="K14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),K6)</f>
-        <v>11391.173343243758</v>
+        <f t="shared" si="7"/>
+        <v>7290.3509396760055</v>
       </c>
       <c r="L14" s="4">
-        <f>$C$14/POWER(1+($B$2/100),L6)</f>
-        <v>11005.964582844212</v>
+        <f t="shared" si="7"/>
+        <v>7043.8173330202962</v>
       </c>
       <c r="M14" s="4">
         <f>SUM(C14:L14)</f>
-        <v>129115.29763302278</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" ref="N14" si="4">M14*P14</f>
-        <v>596358.01475939399</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.21650635094610901</v>
+        <v>82633.790485134581</v>
+      </c>
+      <c r="N14" s="13">
+        <f>M14*Q14</f>
+        <v>381669.12944601214</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="4"/>
+        <v>40.730162978482134</v>
       </c>
       <c r="P14" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1277,43 +1484,43 @@
         <v>5000</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="D15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),D6)</f>
+        <f t="shared" ref="D15:L15" si="8">$C$15/POWER(1+($B$2/100),D6)</f>
         <v>483.09178743961354</v>
       </c>
       <c r="E15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),E6)</f>
+        <f t="shared" si="8"/>
         <v>466.75535018320153</v>
       </c>
       <c r="F15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),F6)</f>
+        <f t="shared" si="8"/>
         <v>450.97135283401121</v>
       </c>
       <c r="G15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),G6)</f>
+        <f t="shared" si="8"/>
         <v>435.72111384928621</v>
       </c>
       <c r="H15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),H6)</f>
+        <f t="shared" si="8"/>
         <v>420.98658342926211</v>
       </c>
       <c r="I15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),I6)</f>
+        <f t="shared" si="8"/>
         <v>406.75032215387637</v>
       </c>
       <c r="J15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),J6)</f>
+        <f t="shared" si="8"/>
         <v>392.99548034190957</v>
       </c>
       <c r="K15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),K6)</f>
+        <f t="shared" si="8"/>
         <v>379.70577810812529</v>
       </c>
       <c r="L15" s="4">
-        <f>$C$15/POWER(1+($B$2/100),L6)</f>
+        <f t="shared" si="8"/>
         <v>366.86548609480707</v>
       </c>
       <c r="M15" s="4">
@@ -1321,21 +1528,25 @@
         <v>9303.8432544340922</v>
       </c>
       <c r="N15" s="3">
-        <f>M15*P15</f>
+        <f>M15*Q15</f>
         <v>42972.611259564794</v>
       </c>
-      <c r="O15" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O15" s="9">
+        <f t="shared" si="4"/>
+        <v>4.5858606975983136</v>
       </c>
       <c r="P15" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1347,39 +1558,39 @@
         <v>1500</v>
       </c>
       <c r="D16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),D6)</f>
+        <f t="shared" ref="D16:L16" si="9">$C$16/POWER(1+($B$2/100),D6)</f>
         <v>1449.2753623188407</v>
       </c>
       <c r="E16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),E6)</f>
+        <f t="shared" si="9"/>
         <v>1400.2660505496046</v>
       </c>
       <c r="F16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),F6)</f>
+        <f t="shared" si="9"/>
         <v>1352.9140585020336</v>
       </c>
       <c r="G16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),G6)</f>
+        <f t="shared" si="9"/>
         <v>1307.1633415478586</v>
       </c>
       <c r="H16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),H6)</f>
+        <f t="shared" si="9"/>
         <v>1262.9597502877862</v>
       </c>
       <c r="I16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),I6)</f>
+        <f t="shared" si="9"/>
         <v>1220.2509664616291</v>
       </c>
       <c r="J16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),J6)</f>
+        <f t="shared" si="9"/>
         <v>1178.9864410257287</v>
       </c>
       <c r="K16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),K6)</f>
+        <f t="shared" si="9"/>
         <v>1139.1173343243759</v>
       </c>
       <c r="L16" s="4">
-        <f>$C$16/POWER(1+($B$2/100),L6)</f>
+        <f t="shared" si="9"/>
         <v>1100.5964582844213</v>
       </c>
       <c r="M16" s="4">
@@ -1387,21 +1598,25 @@
         <v>27911.529763302278</v>
       </c>
       <c r="N16" s="3">
-        <f>M16*P16</f>
+        <f>M16*Q16</f>
         <v>128917.83377869439</v>
       </c>
-      <c r="O16" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O16" s="9">
+        <f t="shared" si="4"/>
+        <v>13.757582092794943</v>
       </c>
       <c r="P16" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -1413,39 +1628,39 @@
         <v>200</v>
       </c>
       <c r="D17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),D6)</f>
+        <f t="shared" ref="D17:L17" si="10">$C$17/POWER(1+($B$2/100),D6)</f>
         <v>193.23671497584542</v>
       </c>
       <c r="E17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),E6)</f>
+        <f t="shared" si="10"/>
         <v>186.70214007328062</v>
       </c>
       <c r="F17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),F6)</f>
+        <f t="shared" si="10"/>
         <v>180.38854113360446</v>
       </c>
       <c r="G17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),G6)</f>
+        <f t="shared" si="10"/>
         <v>174.28844553971447</v>
       </c>
       <c r="H17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),H6)</f>
+        <f t="shared" si="10"/>
         <v>168.39463337170483</v>
       </c>
       <c r="I17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),I6)</f>
+        <f t="shared" si="10"/>
         <v>162.70012886155055</v>
       </c>
       <c r="J17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),J6)</f>
+        <f t="shared" si="10"/>
         <v>157.19819213676382</v>
       </c>
       <c r="K17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),K6)</f>
+        <f t="shared" si="10"/>
         <v>151.88231124325011</v>
       </c>
       <c r="L17" s="7">
-        <f>$C$17/POWER(1+($B$2/100),L6)</f>
+        <f t="shared" si="10"/>
         <v>146.74619443792284</v>
       </c>
       <c r="M17" s="7">
@@ -1453,144 +1668,157 @@
         <v>3721.5373017736374</v>
       </c>
       <c r="N17" s="6">
-        <f>M17*P17</f>
+        <f>M17*Q17</f>
         <v>17189.04450382592</v>
       </c>
-      <c r="O17" s="8">
-        <v>0.21650635094610901</v>
+      <c r="O17" s="35">
+        <f t="shared" si="4"/>
+        <v>1.8343442790393258</v>
       </c>
       <c r="P17" s="8">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="22">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="19">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="15">
         <f>SUM(N7:N17)</f>
-        <v>1151756.4085826825</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+        <v>937067.5232693007</v>
+      </c>
+      <c r="O18" s="36">
+        <f>SUM(O7:O17)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="Q22" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="R22" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="S22" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="9">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="24">
         <v>0</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="24">
         <v>2</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="24">
         <v>3</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="24">
         <v>4</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="24">
         <v>5</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="24">
         <v>6</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="24">
         <v>7</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="24">
         <v>8</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="24">
         <v>9</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="20"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1602,205 +1830,217 @@
         <v>150</v>
       </c>
       <c r="D24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),D23)</f>
+        <f t="shared" ref="D24:L24" si="11">$C$7/POWER(1+($B$2/100),D23)</f>
         <v>144.92753623188406</v>
       </c>
       <c r="E24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),E23)</f>
+        <f t="shared" si="11"/>
         <v>140.02660505496047</v>
       </c>
       <c r="F24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),F23)</f>
+        <f t="shared" si="11"/>
         <v>135.29140585020335</v>
       </c>
       <c r="G24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),G23)</f>
+        <f t="shared" si="11"/>
         <v>130.71633415478587</v>
       </c>
       <c r="H24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),H23)</f>
+        <f t="shared" si="11"/>
         <v>126.29597502877863</v>
       </c>
       <c r="I24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),I23)</f>
+        <f t="shared" si="11"/>
         <v>122.02509664616292</v>
       </c>
       <c r="J24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),J23)</f>
+        <f t="shared" si="11"/>
         <v>117.89864410257287</v>
       </c>
       <c r="K24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),K23)</f>
+        <f t="shared" si="11"/>
         <v>113.91173343243759</v>
       </c>
       <c r="L24" s="4">
-        <f>$C$7/POWER(1+($B$2/100),L23)</f>
+        <f t="shared" si="11"/>
         <v>110.05964582844213</v>
       </c>
       <c r="M24" s="4">
         <f>SUM(B24:L24)</f>
         <v>2791.1529763302283</v>
       </c>
-      <c r="N24" s="11">
-        <f>M24*Q24*P24</f>
+      <c r="N24" s="9">
+        <f>M24*R24*Q24</f>
         <v>38675.350133608328</v>
       </c>
-      <c r="O24" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O24" s="9">
+        <f>N24/$N$35*100</f>
+        <v>5.9004481580400032</v>
       </c>
       <c r="P24" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q24" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R24" s="1">
         <v>3</v>
       </c>
-      <c r="R24" s="21">
+      <c r="S24" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="3">
         <v>4000</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:C32" si="5">B25*0.1</f>
+        <f t="shared" ref="C25:C30" si="12">B25*0.1</f>
         <v>400</v>
       </c>
       <c r="D25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),D23)</f>
+        <f t="shared" ref="D25:L25" si="13">$C$8/POWER(1+($B$2/100),D23)</f>
         <v>386.47342995169083</v>
       </c>
       <c r="E25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),E23)</f>
+        <f t="shared" si="13"/>
         <v>373.40428014656123</v>
       </c>
       <c r="F25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),F23)</f>
+        <f t="shared" si="13"/>
         <v>360.77708226720893</v>
       </c>
       <c r="G25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),G23)</f>
+        <f t="shared" si="13"/>
         <v>348.57689107942895</v>
       </c>
       <c r="H25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),H23)</f>
+        <f t="shared" si="13"/>
         <v>336.78926674340966</v>
       </c>
       <c r="I25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),I23)</f>
+        <f t="shared" si="13"/>
         <v>325.40025772310111</v>
       </c>
       <c r="J25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),J23)</f>
+        <f t="shared" si="13"/>
         <v>314.39638427352764</v>
       </c>
       <c r="K25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),K23)</f>
+        <f t="shared" si="13"/>
         <v>303.76462248650023</v>
       </c>
       <c r="L25" s="4">
-        <f>$C$8/POWER(1+($B$2/100),L23)</f>
+        <f t="shared" si="13"/>
         <v>293.49238887584568</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" ref="M25:M26" si="6">SUM(B25:L25)</f>
+        <f t="shared" ref="M25:M26" si="14">SUM(B25:L25)</f>
         <v>7443.0746035472748</v>
       </c>
       <c r="N25" s="3">
-        <f>M25*Q25*P25</f>
+        <f>M25*R25*Q25</f>
         <v>103134.26702295552</v>
       </c>
-      <c r="O25" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O25" s="9">
+        <f t="shared" ref="O25:O34" si="15">N25/$N$35*100</f>
+        <v>15.734528421440006</v>
       </c>
       <c r="P25" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q25" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R25" s="1">
         <v>3</v>
       </c>
-      <c r="R25" s="21">
+      <c r="S25" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="3">
         <v>10000</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="D26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),D23)</f>
+        <f t="shared" ref="D26:L26" si="16">$C$9/POWER(1+($B$2/100),D23)</f>
         <v>966.18357487922708</v>
       </c>
       <c r="E26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),E23)</f>
+        <f t="shared" si="16"/>
         <v>933.51070036640306</v>
       </c>
       <c r="F26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),F23)</f>
+        <f t="shared" si="16"/>
         <v>901.94270566802243</v>
       </c>
       <c r="G26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),G23)</f>
+        <f t="shared" si="16"/>
         <v>871.44222769857242</v>
       </c>
       <c r="H26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),H23)</f>
+        <f t="shared" si="16"/>
         <v>841.97316685852422</v>
       </c>
       <c r="I26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),I23)</f>
+        <f t="shared" si="16"/>
         <v>813.50064430775274</v>
       </c>
       <c r="J26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),J23)</f>
+        <f t="shared" si="16"/>
         <v>785.99096068381914</v>
       </c>
       <c r="K26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),K23)</f>
+        <f t="shared" si="16"/>
         <v>759.41155621625057</v>
       </c>
       <c r="L26" s="4">
-        <f>$C$9/POWER(1+($B$2/100),L23)</f>
+        <f t="shared" si="16"/>
         <v>733.73097218961414</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>18607.686508868184</v>
       </c>
       <c r="N26" s="3">
-        <f>M26*P26</f>
+        <f>M26*Q26</f>
         <v>85945.222519129587</v>
       </c>
-      <c r="O26" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O26" s="9">
+        <f t="shared" si="15"/>
+        <v>13.112107017866666</v>
       </c>
       <c r="P26" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3">
         <v>10000</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="D27" s="4"/>
@@ -1817,29 +2057,33 @@
         <v>10000</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" ref="N27:N33" si="7">M27*P27/R27</f>
+        <f>M27*Q27/S27</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O27" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O27" s="9">
+        <f t="shared" si="15"/>
+        <v>3.5233039345373771</v>
       </c>
       <c r="P27" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="3">
         <v>5000</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="D28" s="4"/>
@@ -1852,33 +2096,37 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4">
-        <f t="shared" ref="M28:M30" si="8">B28</f>
+        <f t="shared" ref="M28:M30" si="17">B28</f>
         <v>5000</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="7"/>
+        <f>M28*Q28/S28</f>
         <v>11547.005383792499</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O28" s="9">
+        <f t="shared" si="15"/>
+        <v>1.7616519672686886</v>
       </c>
       <c r="P28" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="3">
         <v>10000</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="D29" s="4"/>
@@ -1891,33 +2139,37 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
-      <c r="N29" s="17">
-        <f>M29*P29/R29</f>
+      <c r="N29" s="13">
+        <f>M29*Q29/S29</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O29" s="9">
+        <f t="shared" si="15"/>
+        <v>3.5233039345373771</v>
       </c>
       <c r="P29" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3">
         <v>5000</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="D30" s="4"/>
@@ -1930,88 +2182,96 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="7"/>
+        <f>M30*Q30/S30</f>
         <v>11547.005383792499</v>
       </c>
-      <c r="O30" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O30" s="9">
+        <f t="shared" si="15"/>
+        <v>1.7616519672686886</v>
       </c>
       <c r="P30" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
-        <v>15000</v>
+        <v>9600</v>
       </c>
       <c r="D31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),D23)</f>
-        <v>14492.753623188408</v>
+        <f t="shared" ref="D31:L31" si="18">$C$14/POWER(1+($B$2/100),D23)</f>
+        <v>9275.36231884058</v>
       </c>
       <c r="E31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),E23)</f>
-        <v>14002.660505496046</v>
+        <f t="shared" si="18"/>
+        <v>8961.7027235174701</v>
       </c>
       <c r="F31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),F23)</f>
-        <v>13529.140585020335</v>
+        <f t="shared" si="18"/>
+        <v>8658.6499744130142</v>
       </c>
       <c r="G31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),G23)</f>
-        <v>13071.633415478585</v>
+        <f t="shared" si="18"/>
+        <v>8365.8453859062956</v>
       </c>
       <c r="H31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),H23)</f>
-        <v>12629.597502877863</v>
+        <f t="shared" si="18"/>
+        <v>8082.9424018418322</v>
       </c>
       <c r="I31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),I23)</f>
-        <v>12202.509664616291</v>
+        <f t="shared" si="18"/>
+        <v>7809.606185354427</v>
       </c>
       <c r="J31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),J23)</f>
-        <v>11789.864410257287</v>
+        <f t="shared" si="18"/>
+        <v>7545.5132225646639</v>
       </c>
       <c r="K31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),K23)</f>
-        <v>11391.173343243758</v>
+        <f t="shared" si="18"/>
+        <v>7290.3509396760055</v>
       </c>
       <c r="L31" s="4">
-        <f>$C$14/POWER(1+($B$2/100),L23)</f>
-        <v>11005.964582844212</v>
+        <f t="shared" si="18"/>
+        <v>7043.8173330202962</v>
       </c>
       <c r="M31" s="4">
         <f>SUM(C31:L31)</f>
-        <v>129115.29763302278</v>
+        <v>82633.790485134581</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="7"/>
-        <v>298179.007379697</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.21650635094610901</v>
+        <f>M31*Q31/S31</f>
+        <v>190834.56472300607</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="15"/>
+        <v>29.114395914201189</v>
       </c>
       <c r="P31" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2019,43 +2279,43 @@
         <v>5000</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:C35" si="9">B32*0.1</f>
+        <f t="shared" ref="C32" si="19">B32*0.1</f>
         <v>500</v>
       </c>
       <c r="D32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),D23)</f>
+        <f t="shared" ref="D32:L32" si="20">$C$15/POWER(1+($B$2/100),D23)</f>
         <v>483.09178743961354</v>
       </c>
       <c r="E32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),E23)</f>
+        <f t="shared" si="20"/>
         <v>466.75535018320153</v>
       </c>
       <c r="F32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),F23)</f>
+        <f t="shared" si="20"/>
         <v>450.97135283401121</v>
       </c>
       <c r="G32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),G23)</f>
+        <f t="shared" si="20"/>
         <v>435.72111384928621</v>
       </c>
       <c r="H32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),H23)</f>
+        <f t="shared" si="20"/>
         <v>420.98658342926211</v>
       </c>
       <c r="I32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),I23)</f>
+        <f t="shared" si="20"/>
         <v>406.75032215387637</v>
       </c>
       <c r="J32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),J23)</f>
+        <f t="shared" si="20"/>
         <v>392.99548034190957</v>
       </c>
       <c r="K32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),K23)</f>
+        <f t="shared" si="20"/>
         <v>379.70577810812529</v>
       </c>
       <c r="L32" s="4">
-        <f>$C$15/POWER(1+($B$2/100),L23)</f>
+        <f t="shared" si="20"/>
         <v>366.86548609480707</v>
       </c>
       <c r="M32" s="4">
@@ -2063,21 +2323,25 @@
         <v>9303.8432544340922</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="7"/>
+        <f>M32*Q32/S32</f>
         <v>21486.305629782397</v>
       </c>
-      <c r="O32" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O32" s="9">
+        <f t="shared" si="15"/>
+        <v>3.2780267544666666</v>
       </c>
       <c r="P32" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -2089,39 +2353,39 @@
         <v>1500</v>
       </c>
       <c r="D33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),D23)</f>
+        <f t="shared" ref="D33:L33" si="21">$C$16/POWER(1+($B$2/100),D23)</f>
         <v>1449.2753623188407</v>
       </c>
       <c r="E33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),E23)</f>
+        <f t="shared" si="21"/>
         <v>1400.2660505496046</v>
       </c>
       <c r="F33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),F23)</f>
+        <f t="shared" si="21"/>
         <v>1352.9140585020336</v>
       </c>
       <c r="G33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),G23)</f>
+        <f t="shared" si="21"/>
         <v>1307.1633415478586</v>
       </c>
       <c r="H33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),H23)</f>
+        <f t="shared" si="21"/>
         <v>1262.9597502877862</v>
       </c>
       <c r="I33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),I23)</f>
+        <f t="shared" si="21"/>
         <v>1220.2509664616291</v>
       </c>
       <c r="J33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),J23)</f>
+        <f t="shared" si="21"/>
         <v>1178.9864410257287</v>
       </c>
       <c r="K33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),K23)</f>
+        <f t="shared" si="21"/>
         <v>1139.1173343243759</v>
       </c>
       <c r="L33" s="4">
-        <f>$C$16/POWER(1+($B$2/100),L23)</f>
+        <f t="shared" si="21"/>
         <v>1100.5964582844213</v>
       </c>
       <c r="M33" s="4">
@@ -2129,21 +2393,25 @@
         <v>27911.529763302278</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="7"/>
+        <f>M33*Q33/S33</f>
         <v>128917.83377869439</v>
       </c>
-      <c r="O33" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O33" s="9">
+        <f t="shared" si="15"/>
+        <v>19.668160526800005</v>
       </c>
       <c r="P33" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>2</v>
       </c>
@@ -2155,39 +2423,39 @@
         <v>200</v>
       </c>
       <c r="D34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),D23)</f>
+        <f t="shared" ref="D34:L34" si="22">$C$17/POWER(1+($B$2/100),D23)</f>
         <v>193.23671497584542</v>
       </c>
       <c r="E34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),E23)</f>
+        <f t="shared" si="22"/>
         <v>186.70214007328062</v>
       </c>
       <c r="F34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),F23)</f>
+        <f t="shared" si="22"/>
         <v>180.38854113360446</v>
       </c>
       <c r="G34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),G23)</f>
+        <f t="shared" si="22"/>
         <v>174.28844553971447</v>
       </c>
       <c r="H34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),H23)</f>
+        <f t="shared" si="22"/>
         <v>168.39463337170483</v>
       </c>
       <c r="I34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),I23)</f>
+        <f t="shared" si="22"/>
         <v>162.70012886155055</v>
       </c>
       <c r="J34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),J23)</f>
+        <f t="shared" si="22"/>
         <v>157.19819213676382</v>
       </c>
       <c r="K34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),K23)</f>
+        <f t="shared" si="22"/>
         <v>151.88231124325011</v>
       </c>
       <c r="L34" s="7">
-        <f>$C$17/POWER(1+($B$2/100),L23)</f>
+        <f t="shared" si="22"/>
         <v>146.74619443792284</v>
       </c>
       <c r="M34" s="7">
@@ -2195,144 +2463,157 @@
         <v>3721.5373017736374</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" ref="N32:N34" si="10">M34*P34/R34</f>
+        <f>M34*Q34/S34</f>
         <v>17189.04450382592</v>
       </c>
-      <c r="O34" s="8">
-        <v>0.21650635094610901</v>
+      <c r="O34" s="35">
+        <f t="shared" si="15"/>
+        <v>2.6224214035733344</v>
       </c>
       <c r="P34" s="8">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="22">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="19">
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="15">
         <f>SUM(N24:N34)</f>
-        <v>762809.06327044812</v>
-      </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+        <v>655464.62061375717</v>
+      </c>
+      <c r="O35" s="36">
+        <f>SUM(O24:O34)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="25"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O39" s="13" t="s">
+      <c r="O39" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="Q39" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="R39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="20" t="s">
+      <c r="S39" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="9">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="24">
         <v>0</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="24">
         <v>1</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="24">
         <v>2</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="24">
         <v>3</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="24">
         <v>4</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="24">
         <v>5</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="24">
         <v>6</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="24">
         <v>7</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="24">
         <v>8</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="24">
         <v>9</v>
       </c>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="20"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="26"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
@@ -2344,205 +2625,217 @@
         <v>150</v>
       </c>
       <c r="D41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),D40)</f>
+        <f t="shared" ref="D41:L41" si="23">$C$7/POWER(1+($B$2/100),D40)</f>
         <v>144.92753623188406</v>
       </c>
       <c r="E41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),E40)</f>
+        <f t="shared" si="23"/>
         <v>140.02660505496047</v>
       </c>
       <c r="F41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),F40)</f>
+        <f t="shared" si="23"/>
         <v>135.29140585020335</v>
       </c>
       <c r="G41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),G40)</f>
+        <f t="shared" si="23"/>
         <v>130.71633415478587</v>
       </c>
       <c r="H41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),H40)</f>
+        <f t="shared" si="23"/>
         <v>126.29597502877863</v>
       </c>
       <c r="I41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),I40)</f>
+        <f t="shared" si="23"/>
         <v>122.02509664616292</v>
       </c>
       <c r="J41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),J40)</f>
+        <f t="shared" si="23"/>
         <v>117.89864410257287</v>
       </c>
       <c r="K41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),K40)</f>
+        <f t="shared" si="23"/>
         <v>113.91173343243759</v>
       </c>
       <c r="L41" s="4">
-        <f>$C$7/POWER(1+($B$2/100),L40)</f>
+        <f t="shared" si="23"/>
         <v>110.05964582844213</v>
       </c>
       <c r="M41" s="4">
         <f>SUM(B41:L41)</f>
         <v>2791.1529763302283</v>
       </c>
-      <c r="N41" s="11">
-        <f>M41*Q41*P41/R41</f>
+      <c r="N41" s="9">
+        <f>M41*R41*Q41/S41</f>
         <v>38675.350133608328</v>
       </c>
-      <c r="O41" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O41" s="9">
+        <f>N41/$N$52*100</f>
+        <v>5.9345945785690208</v>
       </c>
       <c r="P41" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q41" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R41" s="1">
         <v>3</v>
       </c>
-      <c r="R41" s="21">
+      <c r="S41" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="3">
         <v>4000</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:C49" si="11">B42*0.1</f>
+        <f t="shared" ref="C42:C47" si="24">B42*0.1</f>
         <v>400</v>
       </c>
       <c r="D42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),D40)</f>
+        <f t="shared" ref="D42:L42" si="25">$C$8/POWER(1+($B$2/100),D40)</f>
         <v>386.47342995169083</v>
       </c>
       <c r="E42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),E40)</f>
+        <f t="shared" si="25"/>
         <v>373.40428014656123</v>
       </c>
       <c r="F42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),F40)</f>
+        <f t="shared" si="25"/>
         <v>360.77708226720893</v>
       </c>
       <c r="G42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),G40)</f>
+        <f t="shared" si="25"/>
         <v>348.57689107942895</v>
       </c>
       <c r="H42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),H40)</f>
+        <f t="shared" si="25"/>
         <v>336.78926674340966</v>
       </c>
       <c r="I42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),I40)</f>
+        <f t="shared" si="25"/>
         <v>325.40025772310111</v>
       </c>
       <c r="J42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),J40)</f>
+        <f t="shared" si="25"/>
         <v>314.39638427352764</v>
       </c>
       <c r="K42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),K40)</f>
+        <f t="shared" si="25"/>
         <v>303.76462248650023</v>
       </c>
       <c r="L42" s="4">
-        <f>$C$8/POWER(1+($B$2/100),L40)</f>
+        <f t="shared" si="25"/>
         <v>293.49238887584568</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" ref="M42:M43" si="12">SUM(B42:L42)</f>
+        <f t="shared" ref="M42:M43" si="26">SUM(B42:L42)</f>
         <v>7443.0746035472748</v>
       </c>
       <c r="N42" s="3">
-        <f>M42*Q42*P42/R42</f>
+        <f>M42*R42*Q42/S42</f>
         <v>103134.26702295552</v>
       </c>
-      <c r="O42" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O42" s="9">
+        <f t="shared" ref="O42:O51" si="27">N42/$N$52*100</f>
+        <v>15.825585542850718</v>
       </c>
       <c r="P42" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q42" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R42" s="1">
         <v>3</v>
       </c>
-      <c r="R42" s="21">
+      <c r="S42" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="3">
         <v>10000</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="D43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),D40)</f>
+        <f t="shared" ref="D43:L43" si="28">$C$9/POWER(1+($B$2/100),D40)</f>
         <v>966.18357487922708</v>
       </c>
       <c r="E43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),E40)</f>
+        <f t="shared" si="28"/>
         <v>933.51070036640306</v>
       </c>
       <c r="F43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),F40)</f>
+        <f t="shared" si="28"/>
         <v>901.94270566802243</v>
       </c>
       <c r="G43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),G40)</f>
+        <f t="shared" si="28"/>
         <v>871.44222769857242</v>
       </c>
       <c r="H43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),H40)</f>
+        <f t="shared" si="28"/>
         <v>841.97316685852422</v>
       </c>
       <c r="I43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),I40)</f>
+        <f t="shared" si="28"/>
         <v>813.50064430775274</v>
       </c>
       <c r="J43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),J40)</f>
+        <f t="shared" si="28"/>
         <v>785.99096068381914</v>
       </c>
       <c r="K43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),K40)</f>
+        <f t="shared" si="28"/>
         <v>759.41155621625057</v>
       </c>
       <c r="L43" s="4">
-        <f>$C$9/POWER(1+($B$2/100),L40)</f>
+        <f t="shared" si="28"/>
         <v>733.73097218961414</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>18607.686508868184</v>
       </c>
       <c r="N43" s="3">
-        <f>M43*P43/R43</f>
+        <f>M43*Q43/S43</f>
         <v>85945.222519129587</v>
       </c>
-      <c r="O43" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O43" s="9">
+        <f t="shared" si="27"/>
+        <v>13.187987952375597</v>
       </c>
       <c r="P43" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="3">
         <v>10000</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="D44" s="4"/>
@@ -2559,29 +2852,33 @@
         <v>10000</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" ref="N44:N45" si="13">M44*P44/R44</f>
+        <f>M44*Q44/S44</f>
         <v>46188.021535169995</v>
       </c>
-      <c r="O44" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O44" s="9">
+        <f t="shared" si="27"/>
+        <v>7.0873872182285371</v>
       </c>
       <c r="P44" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="3">
         <v>5000</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="D45" s="4"/>
@@ -2594,33 +2891,37 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <f t="shared" ref="M45:M47" si="14">B45</f>
+        <f t="shared" ref="M45:M47" si="29">B45</f>
         <v>5000</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="13"/>
+        <f>M45*Q45/S45</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O45" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O45" s="9">
+        <f t="shared" si="27"/>
+        <v>3.5436936091142686</v>
       </c>
       <c r="P45" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="3">
         <v>10000</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1000</v>
       </c>
       <c r="D46" s="4"/>
@@ -2633,33 +2934,37 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="N46" s="3">
-        <f>M46*P46/R46</f>
+        <f>M46*Q46/S46</f>
         <v>46188.021535169995</v>
       </c>
-      <c r="O46" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O46" s="9">
+        <f t="shared" si="27"/>
+        <v>7.0873872182285371</v>
       </c>
       <c r="P46" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="3">
         <v>5000</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="D47" s="4"/>
@@ -2672,88 +2977,96 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>5000</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" ref="N47:N51" si="15">M47*P47/R47</f>
+        <f>M47*Q47/S47</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O47" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O47" s="9">
+        <f t="shared" si="27"/>
+        <v>3.5436936091142686</v>
       </c>
       <c r="P47" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3">
-        <v>15000</v>
+        <v>9600</v>
       </c>
       <c r="D48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),D40)</f>
-        <v>14492.753623188408</v>
+        <f t="shared" ref="D48:L48" si="30">$C$14/POWER(1+($B$2/100),D40)</f>
+        <v>9275.36231884058</v>
       </c>
       <c r="E48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),E40)</f>
-        <v>14002.660505496046</v>
+        <f t="shared" si="30"/>
+        <v>8961.7027235174701</v>
       </c>
       <c r="F48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),F40)</f>
-        <v>13529.140585020335</v>
+        <f t="shared" si="30"/>
+        <v>8658.6499744130142</v>
       </c>
       <c r="G48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),G40)</f>
-        <v>13071.633415478585</v>
+        <f t="shared" si="30"/>
+        <v>8365.8453859062956</v>
       </c>
       <c r="H48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),H40)</f>
-        <v>12629.597502877863</v>
+        <f t="shared" si="30"/>
+        <v>8082.9424018418322</v>
       </c>
       <c r="I48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),I40)</f>
-        <v>12202.509664616291</v>
+        <f t="shared" si="30"/>
+        <v>7809.606185354427</v>
       </c>
       <c r="J48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),J40)</f>
-        <v>11789.864410257287</v>
+        <f t="shared" si="30"/>
+        <v>7545.5132225646639</v>
       </c>
       <c r="K48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),K40)</f>
-        <v>11391.173343243758</v>
+        <f t="shared" si="30"/>
+        <v>7290.3509396760055</v>
       </c>
       <c r="L48" s="4">
-        <f>$C$14/POWER(1+($B$2/100),L40)</f>
-        <v>11005.964582844212</v>
+        <f t="shared" si="30"/>
+        <v>7043.8173330202962</v>
       </c>
       <c r="M48" s="4">
         <f>SUM(C48:L48)</f>
-        <v>129115.29763302278</v>
+        <v>82633.790485134581</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="15"/>
-        <v>298179.007379697</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.21650635094610901</v>
+        <f>M48*Q48/S48</f>
+        <v>190834.56472300607</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="27"/>
+        <v>29.282883523905888</v>
       </c>
       <c r="P48" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
@@ -2761,43 +3074,43 @@
         <v>5000</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" ref="C49:C52" si="16">B49*0.1</f>
+        <f t="shared" ref="C49" si="31">B49*0.1</f>
         <v>500</v>
       </c>
       <c r="D49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),D40)</f>
+        <f t="shared" ref="D49:L49" si="32">$C$15/POWER(1+($B$2/100),D40)</f>
         <v>483.09178743961354</v>
       </c>
       <c r="E49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),E40)</f>
+        <f t="shared" si="32"/>
         <v>466.75535018320153</v>
       </c>
       <c r="F49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),F40)</f>
+        <f t="shared" si="32"/>
         <v>450.97135283401121</v>
       </c>
       <c r="G49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),G40)</f>
+        <f t="shared" si="32"/>
         <v>435.72111384928621</v>
       </c>
       <c r="H49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),H40)</f>
+        <f t="shared" si="32"/>
         <v>420.98658342926211</v>
       </c>
       <c r="I49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),I40)</f>
+        <f t="shared" si="32"/>
         <v>406.75032215387637</v>
       </c>
       <c r="J49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),J40)</f>
+        <f t="shared" si="32"/>
         <v>392.99548034190957</v>
       </c>
       <c r="K49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),K40)</f>
+        <f t="shared" si="32"/>
         <v>379.70577810812529</v>
       </c>
       <c r="L49" s="4">
-        <f>$C$15/POWER(1+($B$2/100),L40)</f>
+        <f t="shared" si="32"/>
         <v>366.86548609480707</v>
       </c>
       <c r="M49" s="4">
@@ -2805,21 +3118,25 @@
         <v>9303.8432544340922</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="15"/>
+        <f>M49*Q49/S49</f>
         <v>21486.305629782397</v>
       </c>
-      <c r="O49" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O49" s="9">
+        <f t="shared" si="27"/>
+        <v>3.2969969880938992</v>
       </c>
       <c r="P49" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
@@ -2831,39 +3148,39 @@
         <v>1500</v>
       </c>
       <c r="D50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),D40)</f>
+        <f t="shared" ref="D50:L50" si="33">$C$16/POWER(1+($B$2/100),D40)</f>
         <v>1449.2753623188407</v>
       </c>
       <c r="E50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),E40)</f>
+        <f t="shared" si="33"/>
         <v>1400.2660505496046</v>
       </c>
       <c r="F50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),F40)</f>
+        <f t="shared" si="33"/>
         <v>1352.9140585020336</v>
       </c>
       <c r="G50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),G40)</f>
+        <f t="shared" si="33"/>
         <v>1307.1633415478586</v>
       </c>
       <c r="H50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),H40)</f>
+        <f t="shared" si="33"/>
         <v>1262.9597502877862</v>
       </c>
       <c r="I50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),I40)</f>
+        <f t="shared" si="33"/>
         <v>1220.2509664616291</v>
       </c>
       <c r="J50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),J40)</f>
+        <f t="shared" si="33"/>
         <v>1178.9864410257287</v>
       </c>
       <c r="K50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),K40)</f>
+        <f t="shared" si="33"/>
         <v>1139.1173343243759</v>
       </c>
       <c r="L50" s="4">
-        <f>$C$16/POWER(1+($B$2/100),L40)</f>
+        <f t="shared" si="33"/>
         <v>1100.5964582844213</v>
       </c>
       <c r="M50" s="4">
@@ -2871,21 +3188,25 @@
         <v>27911.529763302278</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="15"/>
+        <f>M50*Q50/S50</f>
         <v>64458.916889347194</v>
       </c>
-      <c r="O50" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O50" s="9">
+        <f t="shared" si="27"/>
+        <v>9.8909909642816967</v>
       </c>
       <c r="P50" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -2897,39 +3218,39 @@
         <v>200</v>
       </c>
       <c r="D51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),D40)</f>
+        <f t="shared" ref="D51:L51" si="34">$C$17/POWER(1+($B$2/100),D40)</f>
         <v>193.23671497584542</v>
       </c>
       <c r="E51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),E40)</f>
+        <f t="shared" si="34"/>
         <v>186.70214007328062</v>
       </c>
       <c r="F51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),F40)</f>
+        <f t="shared" si="34"/>
         <v>180.38854113360446</v>
       </c>
       <c r="G51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),G40)</f>
+        <f t="shared" si="34"/>
         <v>174.28844553971447</v>
       </c>
       <c r="H51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),H40)</f>
+        <f t="shared" si="34"/>
         <v>168.39463337170483</v>
       </c>
       <c r="I51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),I40)</f>
+        <f t="shared" si="34"/>
         <v>162.70012886155055</v>
       </c>
       <c r="J51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),J40)</f>
+        <f t="shared" si="34"/>
         <v>157.19819213676382</v>
       </c>
       <c r="K51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),K40)</f>
+        <f t="shared" si="34"/>
         <v>151.88231124325011</v>
       </c>
       <c r="L51" s="7">
-        <f>$C$17/POWER(1+($B$2/100),L40)</f>
+        <f t="shared" si="34"/>
         <v>146.74619443792284</v>
       </c>
       <c r="M51" s="7">
@@ -2937,144 +3258,157 @@
         <v>3721.5373017736374</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="15"/>
+        <f>M51*Q51/S51</f>
         <v>8594.5222519129602</v>
       </c>
-      <c r="O51" s="8">
-        <v>0.21650635094610901</v>
+      <c r="O51" s="35">
+        <f t="shared" si="27"/>
+        <v>1.3187987952375599</v>
       </c>
       <c r="P51" s="8">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="22">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R51" s="8"/>
+      <c r="S51" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="19">
+    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="15">
         <f>SUM(N41:N51)</f>
-        <v>759037.65643194283</v>
-      </c>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+        <v>651693.21377525211</v>
+      </c>
+      <c r="O52" s="36">
+        <f>SUM(O41:O51)</f>
+        <v>99.999999999999972</v>
+      </c>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="25"/>
-    </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="29"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13" t="s">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N56" s="13" t="s">
+      <c r="N56" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O56" s="13" t="s">
+      <c r="O56" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P56" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P56" s="13" t="s">
+      <c r="Q56" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="R56" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="R56" s="20" t="s">
+      <c r="S56" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="9">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="24">
         <v>1</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="24">
         <v>2</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="24">
         <v>3</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="24">
         <v>4</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="24">
         <v>5</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="24">
         <v>6</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="24">
         <v>7</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="24">
         <v>8</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="24">
         <v>9</v>
       </c>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="20"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="26"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
@@ -3086,205 +3420,217 @@
         <v>150</v>
       </c>
       <c r="D58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),D57)</f>
+        <f t="shared" ref="D58:L58" si="35">$C$7/POWER(1+($B$2/100),D57)</f>
         <v>144.92753623188406</v>
       </c>
       <c r="E58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),E57)</f>
+        <f t="shared" si="35"/>
         <v>140.02660505496047</v>
       </c>
       <c r="F58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),F57)</f>
+        <f t="shared" si="35"/>
         <v>135.29140585020335</v>
       </c>
       <c r="G58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),G57)</f>
+        <f t="shared" si="35"/>
         <v>130.71633415478587</v>
       </c>
       <c r="H58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),H57)</f>
+        <f t="shared" si="35"/>
         <v>126.29597502877863</v>
       </c>
       <c r="I58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),I57)</f>
+        <f t="shared" si="35"/>
         <v>122.02509664616292</v>
       </c>
       <c r="J58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),J57)</f>
+        <f t="shared" si="35"/>
         <v>117.89864410257287</v>
       </c>
       <c r="K58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),K57)</f>
+        <f t="shared" si="35"/>
         <v>113.91173343243759</v>
       </c>
       <c r="L58" s="4">
-        <f>$C$7/POWER(1+($B$2/100),L57)</f>
+        <f t="shared" si="35"/>
         <v>110.05964582844213</v>
       </c>
       <c r="M58" s="4">
         <f>SUM(B58:L58)</f>
         <v>2791.1529763302283</v>
       </c>
-      <c r="N58" s="11">
-        <f>M58*Q58*P58/R58</f>
+      <c r="N58" s="3">
+        <f>M58*R58*Q58/S58</f>
         <v>19337.675066804164</v>
       </c>
-      <c r="O58" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O58" s="3">
+        <f>N58/$N$69*100</f>
+        <v>4.1272746278384833</v>
       </c>
       <c r="P58" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q58" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R58" s="1">
         <v>3</v>
       </c>
-      <c r="R58" s="21">
+      <c r="S58" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="3">
         <v>4000</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" ref="C59:C66" si="17">B59*0.1</f>
+        <f t="shared" ref="C59:C64" si="36">B59*0.1</f>
         <v>400</v>
       </c>
       <c r="D59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),D57)</f>
+        <f t="shared" ref="D59:L59" si="37">$C$8/POWER(1+($B$2/100),D57)</f>
         <v>386.47342995169083</v>
       </c>
       <c r="E59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),E57)</f>
+        <f t="shared" si="37"/>
         <v>373.40428014656123</v>
       </c>
       <c r="F59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),F57)</f>
+        <f t="shared" si="37"/>
         <v>360.77708226720893</v>
       </c>
       <c r="G59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),G57)</f>
+        <f t="shared" si="37"/>
         <v>348.57689107942895</v>
       </c>
       <c r="H59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),H57)</f>
+        <f t="shared" si="37"/>
         <v>336.78926674340966</v>
       </c>
       <c r="I59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),I57)</f>
+        <f t="shared" si="37"/>
         <v>325.40025772310111</v>
       </c>
       <c r="J59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),J57)</f>
+        <f t="shared" si="37"/>
         <v>314.39638427352764</v>
       </c>
       <c r="K59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),K57)</f>
+        <f t="shared" si="37"/>
         <v>303.76462248650023</v>
       </c>
       <c r="L59" s="4">
-        <f>$C$8/POWER(1+($B$2/100),L57)</f>
+        <f t="shared" si="37"/>
         <v>293.49238887584568</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" ref="M59:M60" si="18">SUM(B59:L59)</f>
+        <f t="shared" ref="M59:M60" si="38">SUM(B59:L59)</f>
         <v>7443.0746035472748</v>
       </c>
       <c r="N59" s="3">
-        <f>M59*Q59*P59/R59</f>
+        <f>M59*R59*Q59/S59</f>
         <v>51567.133511477761</v>
       </c>
-      <c r="O59" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O59" s="3">
+        <f t="shared" ref="O59:O68" si="39">N59/$N$69*100</f>
+        <v>11.006065674235954</v>
       </c>
       <c r="P59" s="1">
-        <v>4.6188021535169996</v>
+        <v>0.21650635094610901</v>
       </c>
       <c r="Q59" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R59" s="1">
         <v>3</v>
       </c>
-      <c r="R59" s="21">
+      <c r="S59" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="3">
         <v>10000</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="D60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),D57)</f>
+        <f t="shared" ref="D60:L60" si="40">$C$9/POWER(1+($B$2/100),D57)</f>
         <v>966.18357487922708</v>
       </c>
       <c r="E60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),E57)</f>
+        <f t="shared" si="40"/>
         <v>933.51070036640306</v>
       </c>
       <c r="F60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),F57)</f>
+        <f t="shared" si="40"/>
         <v>901.94270566802243</v>
       </c>
       <c r="G60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),G57)</f>
+        <f t="shared" si="40"/>
         <v>871.44222769857242</v>
       </c>
       <c r="H60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),H57)</f>
+        <f t="shared" si="40"/>
         <v>841.97316685852422</v>
       </c>
       <c r="I60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),I57)</f>
+        <f t="shared" si="40"/>
         <v>813.50064430775274</v>
       </c>
       <c r="J60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),J57)</f>
+        <f t="shared" si="40"/>
         <v>785.99096068381914</v>
       </c>
       <c r="K60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),K57)</f>
+        <f t="shared" si="40"/>
         <v>759.41155621625057</v>
       </c>
       <c r="L60" s="4">
-        <f>$C$9/POWER(1+($B$2/100),L57)</f>
+        <f t="shared" si="40"/>
         <v>733.73097218961414</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>18607.686508868184</v>
       </c>
       <c r="N60" s="3">
-        <f>M60*P60/R60</f>
+        <f>M60*Q60/S60</f>
         <v>42972.611259564794</v>
       </c>
-      <c r="O60" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O60" s="3">
+        <f t="shared" si="39"/>
+        <v>9.1717213951966272</v>
       </c>
       <c r="P60" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R60" s="1"/>
+      <c r="S60" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3">
         <v>10000</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="D61" s="4"/>
@@ -3300,30 +3646,34 @@
         <f>B61</f>
         <v>10000</v>
       </c>
-      <c r="N61" s="17">
-        <f>M61*P61/R61</f>
+      <c r="N61" s="13">
+        <f>M61*Q61/S61</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O61" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O61" s="3">
+        <f t="shared" si="39"/>
+        <v>4.9289960849380723</v>
       </c>
       <c r="P61" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R61" s="1"/>
+      <c r="S61" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="3">
         <v>5000</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="D62" s="4"/>
@@ -3336,33 +3686,37 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4">
-        <f t="shared" ref="M62:M64" si="19">B62</f>
+        <f t="shared" ref="M62:M64" si="41">B62</f>
         <v>5000</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" ref="N62" si="20">M62*P62/R62</f>
+        <f>M62*Q62/S62</f>
         <v>11547.005383792499</v>
       </c>
-      <c r="O62" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O62" s="3">
+        <f t="shared" si="39"/>
+        <v>2.4644980424690361</v>
       </c>
       <c r="P62" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R62" s="1"/>
+      <c r="S62" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="3">
         <v>10000</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="D63" s="4"/>
@@ -3375,33 +3729,37 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>10000</v>
       </c>
       <c r="N63" s="3">
-        <f>M63*P63/R63</f>
+        <f>M63*Q63/S63</f>
         <v>23094.010767584998</v>
       </c>
-      <c r="O63" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O63" s="3">
+        <f t="shared" si="39"/>
+        <v>4.9289960849380723</v>
       </c>
       <c r="P63" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R63" s="1"/>
+      <c r="S63" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="3">
         <v>5000</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>500</v>
       </c>
       <c r="D64" s="4"/>
@@ -3414,88 +3772,96 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>5000</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" ref="N64:N68" si="21">M64*P64/R64</f>
+        <f>M64*Q64/S64</f>
         <v>11547.005383792499</v>
       </c>
-      <c r="O64" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O64" s="3">
+        <f t="shared" si="39"/>
+        <v>2.4644980424690361</v>
       </c>
       <c r="P64" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R64" s="1"/>
+      <c r="S64" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3">
-        <v>15000</v>
+        <v>9600</v>
       </c>
       <c r="D65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),D57)</f>
-        <v>14492.753623188408</v>
+        <f t="shared" ref="D65:L65" si="42">$C$14/POWER(1+($B$2/100),D57)</f>
+        <v>9275.36231884058</v>
       </c>
       <c r="E65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),E57)</f>
-        <v>14002.660505496046</v>
+        <f t="shared" si="42"/>
+        <v>8961.7027235174701</v>
       </c>
       <c r="F65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),F57)</f>
-        <v>13529.140585020335</v>
+        <f t="shared" si="42"/>
+        <v>8658.6499744130142</v>
       </c>
       <c r="G65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),G57)</f>
-        <v>13071.633415478585</v>
+        <f t="shared" si="42"/>
+        <v>8365.8453859062956</v>
       </c>
       <c r="H65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),H57)</f>
-        <v>12629.597502877863</v>
+        <f t="shared" si="42"/>
+        <v>8082.9424018418322</v>
       </c>
       <c r="I65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),I57)</f>
-        <v>12202.509664616291</v>
+        <f t="shared" si="42"/>
+        <v>7809.606185354427</v>
       </c>
       <c r="J65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),J57)</f>
-        <v>11789.864410257287</v>
+        <f t="shared" si="42"/>
+        <v>7545.5132225646639</v>
       </c>
       <c r="K65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),K57)</f>
-        <v>11391.173343243758</v>
+        <f t="shared" si="42"/>
+        <v>7290.3509396760055</v>
       </c>
       <c r="L65" s="4">
-        <f>$C$14/POWER(1+($B$2/100),L57)</f>
-        <v>11005.964582844212</v>
+        <f t="shared" si="42"/>
+        <v>7043.8173330202962</v>
       </c>
       <c r="M65" s="4">
         <f>SUM(C65:L65)</f>
-        <v>129115.29763302278</v>
+        <v>82633.790485134581</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="21"/>
-        <v>298179.007379697</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0.21650635094610901</v>
+        <f>M65*Q65/S65</f>
+        <v>190834.56472300607</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="39"/>
+        <v>40.730162978482134</v>
       </c>
       <c r="P65" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R65" s="1"/>
+      <c r="S65" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
@@ -3503,43 +3869,43 @@
         <v>5000</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ref="C66:C69" si="22">B66*0.1</f>
+        <f t="shared" ref="C66" si="43">B66*0.1</f>
         <v>500</v>
       </c>
       <c r="D66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),D57)</f>
+        <f t="shared" ref="D66:L66" si="44">$C$15/POWER(1+($B$2/100),D57)</f>
         <v>483.09178743961354</v>
       </c>
       <c r="E66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),E57)</f>
+        <f t="shared" si="44"/>
         <v>466.75535018320153</v>
       </c>
       <c r="F66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),F57)</f>
+        <f t="shared" si="44"/>
         <v>450.97135283401121</v>
       </c>
       <c r="G66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),G57)</f>
+        <f t="shared" si="44"/>
         <v>435.72111384928621</v>
       </c>
       <c r="H66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),H57)</f>
+        <f t="shared" si="44"/>
         <v>420.98658342926211</v>
       </c>
       <c r="I66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),I57)</f>
+        <f t="shared" si="44"/>
         <v>406.75032215387637</v>
       </c>
       <c r="J66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),J57)</f>
+        <f t="shared" si="44"/>
         <v>392.99548034190957</v>
       </c>
       <c r="K66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),K57)</f>
+        <f t="shared" si="44"/>
         <v>379.70577810812529</v>
       </c>
       <c r="L66" s="4">
-        <f>$C$15/POWER(1+($B$2/100),L57)</f>
+        <f t="shared" si="44"/>
         <v>366.86548609480707</v>
       </c>
       <c r="M66" s="4">
@@ -3547,21 +3913,25 @@
         <v>9303.8432544340922</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="21"/>
+        <f>M66*Q66/S66</f>
         <v>21486.305629782397</v>
       </c>
-      <c r="O66" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O66" s="3">
+        <f t="shared" si="39"/>
+        <v>4.5858606975983136</v>
       </c>
       <c r="P66" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R66" s="1"/>
+      <c r="S66" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
@@ -3573,39 +3943,39 @@
         <v>1500</v>
       </c>
       <c r="D67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),D57)</f>
+        <f t="shared" ref="D67:L67" si="45">$C$16/POWER(1+($B$2/100),D57)</f>
         <v>1449.2753623188407</v>
       </c>
       <c r="E67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),E57)</f>
+        <f t="shared" si="45"/>
         <v>1400.2660505496046</v>
       </c>
       <c r="F67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),F57)</f>
+        <f t="shared" si="45"/>
         <v>1352.9140585020336</v>
       </c>
       <c r="G67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),G57)</f>
+        <f t="shared" si="45"/>
         <v>1307.1633415478586</v>
       </c>
       <c r="H67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),H57)</f>
+        <f t="shared" si="45"/>
         <v>1262.9597502877862</v>
       </c>
       <c r="I67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),I57)</f>
+        <f t="shared" si="45"/>
         <v>1220.2509664616291</v>
       </c>
       <c r="J67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),J57)</f>
+        <f t="shared" si="45"/>
         <v>1178.9864410257287</v>
       </c>
       <c r="K67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),K57)</f>
+        <f t="shared" si="45"/>
         <v>1139.1173343243759</v>
       </c>
       <c r="L67" s="4">
-        <f>$C$16/POWER(1+($B$2/100),L57)</f>
+        <f t="shared" si="45"/>
         <v>1100.5964582844213</v>
       </c>
       <c r="M67" s="4">
@@ -3613,21 +3983,25 @@
         <v>27911.529763302278</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="21"/>
+        <f>M67*Q67/S67</f>
         <v>64458.916889347194</v>
       </c>
-      <c r="O67" s="1">
-        <v>0.21650635094610901</v>
+      <c r="O67" s="3">
+        <f t="shared" si="39"/>
+        <v>13.757582092794943</v>
       </c>
       <c r="P67" s="1">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="21">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R67" s="1"/>
+      <c r="S67" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -3639,39 +4013,39 @@
         <v>200</v>
       </c>
       <c r="D68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),D57)</f>
+        <f t="shared" ref="D68:L68" si="46">$C$17/POWER(1+($B$2/100),D57)</f>
         <v>193.23671497584542</v>
       </c>
       <c r="E68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),E57)</f>
+        <f t="shared" si="46"/>
         <v>186.70214007328062</v>
       </c>
       <c r="F68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),F57)</f>
+        <f t="shared" si="46"/>
         <v>180.38854113360446</v>
       </c>
       <c r="G68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),G57)</f>
+        <f t="shared" si="46"/>
         <v>174.28844553971447</v>
       </c>
       <c r="H68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),H57)</f>
+        <f t="shared" si="46"/>
         <v>168.39463337170483</v>
       </c>
       <c r="I68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),I57)</f>
+        <f t="shared" si="46"/>
         <v>162.70012886155055</v>
       </c>
       <c r="J68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),J57)</f>
+        <f t="shared" si="46"/>
         <v>157.19819213676382</v>
       </c>
       <c r="K68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),K57)</f>
+        <f t="shared" si="46"/>
         <v>151.88231124325011</v>
       </c>
       <c r="L68" s="7">
-        <f>$C$17/POWER(1+($B$2/100),L57)</f>
+        <f t="shared" si="46"/>
         <v>146.74619443792284</v>
       </c>
       <c r="M68" s="7">
@@ -3679,87 +4053,100 @@
         <v>3721.5373017736374</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="21"/>
+        <f>M68*Q68/S68</f>
         <v>8594.5222519129602</v>
       </c>
-      <c r="O68" s="8">
-        <v>0.21650635094610901</v>
+      <c r="O68" s="6">
+        <f t="shared" si="39"/>
+        <v>1.8343442790393258</v>
       </c>
       <c r="P68" s="8">
-        <v>4.6188021535169996</v>
-      </c>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="22">
+        <v>0.21650635094610901</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>4.6188021535169996</v>
+      </c>
+      <c r="R68" s="8"/>
+      <c r="S68" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="19">
+    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="15">
         <f>SUM(N58:N68)</f>
-        <v>575878.20429134124</v>
-      </c>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F75" s="18"/>
+        <v>468533.76163465035</v>
+      </c>
+      <c r="O69" s="36">
+        <f>SUM(O58:O68)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="40"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F75" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="A55:R55"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="A4:R4"/>
+  <mergeCells count="44">
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="A38:S38"/>
+    <mergeCell ref="A21:S21"/>
+    <mergeCell ref="A4:S4"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:L56"/>
     <mergeCell ref="M56:M57"/>
     <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
     <mergeCell ref="P56:P57"/>
     <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S22:S23"/>
     <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
